--- a/patch/SLPS/scripts/temp.xlsx
+++ b/patch/SLPS/scripts/temp.xlsx
@@ -8959,13 +8959,13 @@
         <is>
           <t xml:space="preserve">//Text $138A4
 #WRITE(ptr,$56FC)
-Monsters in Town?![END]
+Monsters in Town!?[END]
 </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsters in Town?![END]
+          <t xml:space="preserve">Monsters in Town!?[END]
 </t>
         </is>
       </c>
@@ -12988,13 +12988,13 @@
         <is>
           <t xml:space="preserve">//Text $13FC3
 #WRITE(ptr,$5838)
-Civil War Outbreak?![END]
+Civil War Outbreak!?[END]
 </t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Civil War Outbreak?![END]
+          <t xml:space="preserve">Civil War Outbreak!?[END]
 </t>
         </is>
       </c>
@@ -25636,13 +25636,13 @@
         <is>
           <t xml:space="preserve">//Text $15728
 #WRITE(ptr,$5C18)
-I'm a Little Rusty[END]
+I'm a Bit Nervous[END]
 </t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm a Little Rusty[END]
+          <t xml:space="preserve">I'm a Bit Nervous[END]
 </t>
         </is>
       </c>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1573B</t>
+          <t>1573A</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -25662,7 +25662,7 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H495" t="n">
         <v>87848</v>
@@ -25673,7 +25673,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>87867</v>
+        <v>87866</v>
       </c>
       <c r="K495" t="n">
         <v>4014208</v>
@@ -25685,7 +25685,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1573B
+          <t xml:space="preserve">//Text $1573A
 #WRITE(ptr,$5C1C)
 Burning Glare[END]
 </t>
@@ -25699,12 +25699,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>1573B</t>
+          <t>1573A</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>15749</t>
+          <t>15748</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -25716,7 +25716,7 @@
         <v>14</v>
       </c>
       <c r="H496" t="n">
-        <v>87867</v>
+        <v>87866</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>87881</v>
+        <v>87880</v>
       </c>
       <c r="K496" t="n">
         <v>4014208</v>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15749
+          <t xml:space="preserve">//Text $15748
 #WRITE(ptr,$5C20)
 A More Intense Glare[END]
 </t>
@@ -25750,12 +25750,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>15749</t>
+          <t>15748</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1575E</t>
+          <t>1575D</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -25767,7 +25767,7 @@
         <v>21</v>
       </c>
       <c r="H497" t="n">
-        <v>87881</v>
+        <v>87880</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>87902</v>
+        <v>87901</v>
       </c>
       <c r="K497" t="n">
         <v>4014208</v>
@@ -25787,26 +25787,26 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1575E
+          <t xml:space="preserve">//Text $1575D
 #WRITE(ptr,$5C24)
-You're the Future Champion?![END]
+You're the Future Champion!?[END]
 </t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve">You're the Future Champion?![END]
+          <t xml:space="preserve">You're the Future Champion!?[END]
 </t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>1575E</t>
+          <t>1575D</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1577B</t>
+          <t>1577A</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -25818,7 +25818,7 @@
         <v>29</v>
       </c>
       <c r="H498" t="n">
-        <v>87902</v>
+        <v>87901</v>
       </c>
       <c r="I498" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>87931</v>
+        <v>87930</v>
       </c>
       <c r="K498" t="n">
         <v>4014208</v>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1577B
+          <t xml:space="preserve">//Text $1577A
 #WRITE(ptr,$5C28)
 War of the Women?[END]
 </t>
@@ -25852,12 +25852,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>1577B</t>
+          <t>1577A</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1578D</t>
+          <t>1578C</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -25869,7 +25869,7 @@
         <v>18</v>
       </c>
       <c r="H499" t="n">
-        <v>87931</v>
+        <v>87930</v>
       </c>
       <c r="I499" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>87949</v>
+        <v>87948</v>
       </c>
       <c r="K499" t="n">
         <v>4014208</v>
@@ -25889,7 +25889,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1578D
+          <t xml:space="preserve">//Text $1578C
 #WRITE(ptr,$5C2C)
 The Key to Strength[END]
 </t>
@@ -25903,12 +25903,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>1578D</t>
+          <t>1578C</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>157A1</t>
+          <t>157A0</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -25920,7 +25920,7 @@
         <v>20</v>
       </c>
       <c r="H500" t="n">
-        <v>87949</v>
+        <v>87948</v>
       </c>
       <c r="I500" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>87969</v>
+        <v>87968</v>
       </c>
       <c r="K500" t="n">
         <v>4014208</v>
@@ -25940,7 +25940,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157A1
+          <t xml:space="preserve">//Text $157A0
 #WRITE(ptr,$5C30)
 Legendary Champion[END]
 </t>
@@ -25954,12 +25954,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>157A1</t>
+          <t>157A0</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>157B4</t>
+          <t>157B3</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -25971,7 +25971,7 @@
         <v>19</v>
       </c>
       <c r="H501" t="n">
-        <v>87969</v>
+        <v>87968</v>
       </c>
       <c r="I501" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>87988</v>
+        <v>87987</v>
       </c>
       <c r="K501" t="n">
         <v>4014208</v>
@@ -25991,7 +25991,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157B4
+          <t xml:space="preserve">//Text $157B3
 #WRITE(ptr,$5C34)
 Female Friendship?[END]
 </t>
@@ -26005,12 +26005,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>157B4</t>
+          <t>157B3</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>157C7</t>
+          <t>157C6</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -26022,7 +26022,7 @@
         <v>19</v>
       </c>
       <c r="H502" t="n">
-        <v>87988</v>
+        <v>87987</v>
       </c>
       <c r="I502" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>88007</v>
+        <v>88006</v>
       </c>
       <c r="K502" t="n">
         <v>4014208</v>
@@ -26042,7 +26042,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157C7
+          <t xml:space="preserve">//Text $157C6
 #WRITE(ptr,$5C38)
 Ghosts of the Past[END]
 </t>
@@ -26056,12 +26056,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>157C7</t>
+          <t>157C6</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>157DA</t>
+          <t>157D9</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -26073,7 +26073,7 @@
         <v>19</v>
       </c>
       <c r="H503" t="n">
-        <v>88007</v>
+        <v>88006</v>
       </c>
       <c r="I503" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>88026</v>
+        <v>88025</v>
       </c>
       <c r="K503" t="n">
         <v>4014208</v>
@@ -26093,7 +26093,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157DA
+          <t xml:space="preserve">//Text $157D9
 #WRITE(ptr,$5C3C)
 Enthralling Brilliance[END]
 </t>
@@ -26107,12 +26107,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>157DA</t>
+          <t>157D9</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>157F1</t>
+          <t>157F0</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -26124,7 +26124,7 @@
         <v>23</v>
       </c>
       <c r="H504" t="n">
-        <v>88026</v>
+        <v>88025</v>
       </c>
       <c r="I504" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>88049</v>
+        <v>88048</v>
       </c>
       <c r="K504" t="n">
         <v>4014208</v>
@@ -26144,7 +26144,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157F1
+          <t xml:space="preserve">//Text $157F0
 #WRITE(ptr,$5C40)
 The Life of a Lens Hunter[END]
 </t>
@@ -26158,12 +26158,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>157F1</t>
+          <t>157F0</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>1580B</t>
+          <t>1580A</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -26175,7 +26175,7 @@
         <v>26</v>
       </c>
       <c r="H505" t="n">
-        <v>88049</v>
+        <v>88048</v>
       </c>
       <c r="I505" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>88075</v>
+        <v>88074</v>
       </c>
       <c r="K505" t="n">
         <v>4014208</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1580B
+          <t xml:space="preserve">//Text $1580A
 #WRITE(ptr,$5C44)
 I Don't Want to Do This[END]
 </t>
@@ -26209,12 +26209,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>1580B</t>
+          <t>1580A</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>15823</t>
+          <t>15822</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -26226,7 +26226,7 @@
         <v>24</v>
       </c>
       <c r="H506" t="n">
-        <v>88075</v>
+        <v>88074</v>
       </c>
       <c r="I506" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>88099</v>
+        <v>88098</v>
       </c>
       <c r="K506" t="n">
         <v>4014208</v>
@@ -26246,7 +26246,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15823
+          <t xml:space="preserve">//Text $15822
 #WRITE(ptr,$5C48)
 I'm Stuffed![END]
 </t>
@@ -26260,12 +26260,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>15823</t>
+          <t>15822</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>15830</t>
+          <t>1582F</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -26277,7 +26277,7 @@
         <v>13</v>
       </c>
       <c r="H507" t="n">
-        <v>88099</v>
+        <v>88098</v>
       </c>
       <c r="I507" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>88112</v>
+        <v>88111</v>
       </c>
       <c r="K507" t="n">
         <v>4014208</v>
@@ -26297,7 +26297,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15830
+          <t xml:space="preserve">//Text $1582F
 #WRITE(ptr,$5C4C)
 You Need to Recover[END]
 </t>
@@ -26311,12 +26311,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>15830</t>
+          <t>1582F</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>15844</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -26328,7 +26328,7 @@
         <v>20</v>
       </c>
       <c r="H508" t="n">
-        <v>88112</v>
+        <v>88111</v>
       </c>
       <c r="I508" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>88132</v>
+        <v>88131</v>
       </c>
       <c r="K508" t="n">
         <v>4014208</v>
@@ -26348,7 +26348,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15844
+          <t xml:space="preserve">//Text $15843
 #WRITE(ptr,$5C50)
 Don't Get Confused![END]
 </t>
@@ -26362,12 +26362,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>15844</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>15857</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -26379,7 +26379,7 @@
         <v>20</v>
       </c>
       <c r="H509" t="n">
-        <v>88132</v>
+        <v>88131</v>
       </c>
       <c r="I509" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>88152</v>
+        <v>88151</v>
       </c>
       <c r="K509" t="n">
         <v>4014208</v>
@@ -26399,7 +26399,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15858
+          <t xml:space="preserve">//Text $15857
 #WRITE(ptr,$5C54)
 Common Sense[END]
 </t>
@@ -26413,12 +26413,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>15857</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -26430,7 +26430,7 @@
         <v>13</v>
       </c>
       <c r="H510" t="n">
-        <v>88152</v>
+        <v>88151</v>
       </c>
       <c r="I510" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>88165</v>
+        <v>88164</v>
       </c>
       <c r="K510" t="n">
         <v>4014208</v>
@@ -26450,7 +26450,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15865
+          <t xml:space="preserve">//Text $15864
 #WRITE(ptr,$5C58)
 A Token of Apology[END]
 </t>
@@ -26464,12 +26464,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>15878</t>
+          <t>15877</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -26481,7 +26481,7 @@
         <v>19</v>
       </c>
       <c r="H511" t="n">
-        <v>88165</v>
+        <v>88164</v>
       </c>
       <c r="I511" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>88184</v>
+        <v>88183</v>
       </c>
       <c r="K511" t="n">
         <v>4014208</v>
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15878
+          <t xml:space="preserve">//Text $15877
 #WRITE(ptr,$5C5C)
 Potential Substitute?[END]
 </t>
@@ -26515,12 +26515,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>15878</t>
+          <t>15877</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>1588E</t>
+          <t>1588D</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -26532,7 +26532,7 @@
         <v>22</v>
       </c>
       <c r="H512" t="n">
-        <v>88184</v>
+        <v>88183</v>
       </c>
       <c r="I512" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>88206</v>
+        <v>88205</v>
       </c>
       <c r="K512" t="n">
         <v>4014208</v>
@@ -26552,7 +26552,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1588E
+          <t xml:space="preserve">//Text $1588D
 #WRITE(ptr,$5C60)
 Personal Responsibility[END]
 </t>
@@ -26566,12 +26566,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>1588E</t>
+          <t>1588D</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>158A6</t>
+          <t>158A5</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -26583,7 +26583,7 @@
         <v>24</v>
       </c>
       <c r="H513" t="n">
-        <v>88206</v>
+        <v>88205</v>
       </c>
       <c r="I513" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>88230</v>
+        <v>88229</v>
       </c>
       <c r="K513" t="n">
         <v>4014208</v>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158A6
+          <t xml:space="preserve">//Text $158A5
 #WRITE(ptr,$5C64)
 Positive and Negative Words[END]
 </t>
@@ -26617,12 +26617,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>158A6</t>
+          <t>158A5</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>158C2</t>
+          <t>158C1</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -26634,7 +26634,7 @@
         <v>28</v>
       </c>
       <c r="H514" t="n">
-        <v>88230</v>
+        <v>88229</v>
       </c>
       <c r="I514" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>88258</v>
+        <v>88257</v>
       </c>
       <c r="K514" t="n">
         <v>4014208</v>
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158C2
+          <t xml:space="preserve">//Text $158C1
 #WRITE(ptr,$5C68)
 Are We Forgetting Something?[END]
 </t>
@@ -26668,12 +26668,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>158C2</t>
+          <t>158C1</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>158DF</t>
+          <t>158DE</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -26685,7 +26685,7 @@
         <v>29</v>
       </c>
       <c r="H515" t="n">
-        <v>88258</v>
+        <v>88257</v>
       </c>
       <c r="I515" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="K515" t="n">
         <v>4014208</v>
@@ -26705,7 +26705,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158DF
+          <t xml:space="preserve">//Text $158DE
 #WRITE(ptr,$5C6C)
 I Know How You're Feeling[END]
 </t>
@@ -26719,12 +26719,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>158DF</t>
+          <t>158DE</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>158F9</t>
+          <t>158F8</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -26736,7 +26736,7 @@
         <v>26</v>
       </c>
       <c r="H516" t="n">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="I516" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>88313</v>
+        <v>88312</v>
       </c>
       <c r="K516" t="n">
         <v>4014208</v>
@@ -26756,7 +26756,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158F9
+          <t xml:space="preserve">//Text $158F8
 #WRITE(ptr,$5C70)
 Where Are My Brother's Thoughts?[END]
 </t>
@@ -26770,12 +26770,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>158F9</t>
+          <t>158F8</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>1591A</t>
+          <t>15919</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -26787,7 +26787,7 @@
         <v>33</v>
       </c>
       <c r="H517" t="n">
-        <v>88313</v>
+        <v>88312</v>
       </c>
       <c r="I517" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>88346</v>
+        <v>88345</v>
       </c>
       <c r="K517" t="n">
         <v>4014208</v>
@@ -26807,7 +26807,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1591A
+          <t xml:space="preserve">//Text $15919
 #WRITE(ptr,$5C74)
 Thank You, Everyone![END]
 </t>
@@ -26821,12 +26821,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>1591A</t>
+          <t>15919</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1592F</t>
+          <t>1592E</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -26838,7 +26838,7 @@
         <v>21</v>
       </c>
       <c r="H518" t="n">
-        <v>88346</v>
+        <v>88345</v>
       </c>
       <c r="I518" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>88367</v>
+        <v>88366</v>
       </c>
       <c r="K518" t="n">
         <v>4014208</v>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1592F
+          <t xml:space="preserve">//Text $1592E
 #WRITE(ptr,$5C78)
 [Mary]'s Dream[END]
 </t>
@@ -26872,12 +26872,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>1592F</t>
+          <t>1592E</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>1593D</t>
+          <t>1593C</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -26889,7 +26889,7 @@
         <v>14</v>
       </c>
       <c r="H519" t="n">
-        <v>88367</v>
+        <v>88366</v>
       </c>
       <c r="I519" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>88381</v>
+        <v>88380</v>
       </c>
       <c r="K519" t="n">
         <v>4014208</v>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1593D
+          <t xml:space="preserve">//Text $1593C
 #WRITE(ptr,$5C7C)
 Why Won't He Tell Me His Name?[END]
 </t>
@@ -26923,12 +26923,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>1593D</t>
+          <t>1593C</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>1595C</t>
+          <t>1595B</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -26940,7 +26940,7 @@
         <v>31</v>
       </c>
       <c r="H520" t="n">
-        <v>88381</v>
+        <v>88380</v>
       </c>
       <c r="I520" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>88412</v>
+        <v>88411</v>
       </c>
       <c r="K520" t="n">
         <v>4014208</v>
@@ -26960,7 +26960,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1595C
+          <t xml:space="preserve">//Text $1595B
 #WRITE(ptr,$5C80)
 I Love Sleeping[END]
 </t>
@@ -26974,12 +26974,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>1595C</t>
+          <t>1595B</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1596C</t>
+          <t>1596B</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -26991,7 +26991,7 @@
         <v>16</v>
       </c>
       <c r="H521" t="n">
-        <v>88412</v>
+        <v>88411</v>
       </c>
       <c r="I521" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>88428</v>
+        <v>88427</v>
       </c>
       <c r="K521" t="n">
         <v>4014208</v>
@@ -27011,7 +27011,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1596C
+          <t xml:space="preserve">//Text $1596B
 #WRITE(ptr,$5C84)
 Looking for Gald[END]
 </t>
@@ -27025,12 +27025,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>1596C</t>
+          <t>1596B</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1597D</t>
+          <t>1597C</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -27042,7 +27042,7 @@
         <v>17</v>
       </c>
       <c r="H522" t="n">
-        <v>88428</v>
+        <v>88427</v>
       </c>
       <c r="I522" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>88445</v>
+        <v>88444</v>
       </c>
       <c r="K522" t="n">
         <v>4014208</v>
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1597D
+          <t xml:space="preserve">//Text $1597C
 #WRITE(ptr,$5C88)
 I've Got Your Back[END]
 </t>
@@ -27076,12 +27076,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>1597D</t>
+          <t>1597C</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>1598F</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -27093,7 +27093,7 @@
         <v>19</v>
       </c>
       <c r="H523" t="n">
-        <v>88445</v>
+        <v>88444</v>
       </c>
       <c r="I523" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>88464</v>
+        <v>88463</v>
       </c>
       <c r="K523" t="n">
         <v>4014208</v>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15990
+          <t xml:space="preserve">//Text $1598F
 #WRITE(ptr,$5C8C)
 Intuition on the Field?[END]
 </t>
@@ -27127,12 +27127,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>1598F</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>159A8</t>
+          <t>159A7</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -27144,7 +27144,7 @@
         <v>24</v>
       </c>
       <c r="H524" t="n">
-        <v>88464</v>
+        <v>88463</v>
       </c>
       <c r="I524" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>88488</v>
+        <v>88487</v>
       </c>
       <c r="K524" t="n">
         <v>4014208</v>
@@ -27164,7 +27164,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159A8
+          <t xml:space="preserve">//Text $159A7
 #WRITE(ptr,$5C90)
 Suprising Suited for Command?[END]
 </t>
@@ -27178,12 +27178,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>159A8</t>
+          <t>159A7</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>159C6</t>
+          <t>159C5</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -27195,7 +27195,7 @@
         <v>30</v>
       </c>
       <c r="H525" t="n">
-        <v>88488</v>
+        <v>88487</v>
       </c>
       <c r="I525" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>88518</v>
+        <v>88517</v>
       </c>
       <c r="K525" t="n">
         <v>4014208</v>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159C6
+          <t xml:space="preserve">//Text $159C5
 #WRITE(ptr,$5C94)
 I'm Enjoying This[END]
 </t>
@@ -27229,12 +27229,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>159C6</t>
+          <t>159C5</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>159D8</t>
+          <t>159D7</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -27246,7 +27246,7 @@
         <v>18</v>
       </c>
       <c r="H526" t="n">
-        <v>88518</v>
+        <v>88517</v>
       </c>
       <c r="I526" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>88536</v>
+        <v>88535</v>
       </c>
       <c r="K526" t="n">
         <v>4014208</v>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159D8
+          <t xml:space="preserve">//Text $159D7
 #WRITE(ptr,$5C98)
 Growing Seeds is Fun[END]
 </t>
@@ -27280,12 +27280,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>159D8</t>
+          <t>159D7</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>159ED</t>
+          <t>159EC</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -27297,7 +27297,7 @@
         <v>21</v>
       </c>
       <c r="H527" t="n">
-        <v>88536</v>
+        <v>88535</v>
       </c>
       <c r="I527" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>88557</v>
+        <v>88556</v>
       </c>
       <c r="K527" t="n">
         <v>4014208</v>
@@ -27317,7 +27317,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159ED
+          <t xml:space="preserve">//Text $159EC
 #WRITE(ptr,$5C9C)
 Merits and Demerits[END]
 </t>
@@ -27331,12 +27331,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>159ED</t>
+          <t>159EC</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>15A01</t>
+          <t>15A00</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -27348,7 +27348,7 @@
         <v>20</v>
       </c>
       <c r="H528" t="n">
-        <v>88557</v>
+        <v>88556</v>
       </c>
       <c r="I528" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>88577</v>
+        <v>88576</v>
       </c>
       <c r="K528" t="n">
         <v>4014208</v>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A01
+          <t xml:space="preserve">//Text $15A00
 #WRITE(ptr,$5CA0)
 Tireless Effort is the Secret to Victory[END]
 </t>
@@ -27382,12 +27382,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>15A01</t>
+          <t>15A00</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>15A2A</t>
+          <t>15A29</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -27399,7 +27399,7 @@
         <v>41</v>
       </c>
       <c r="H529" t="n">
-        <v>88577</v>
+        <v>88576</v>
       </c>
       <c r="I529" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>88618</v>
+        <v>88617</v>
       </c>
       <c r="K529" t="n">
         <v>4014208</v>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A2A
+          <t xml:space="preserve">//Text $15A29
 #WRITE(ptr,$5CA4)
 The Fun After Battle[END]
 </t>
@@ -27433,12 +27433,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>15A2A</t>
+          <t>15A29</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>15A3F</t>
+          <t>15A3E</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -27450,7 +27450,7 @@
         <v>21</v>
       </c>
       <c r="H530" t="n">
-        <v>88618</v>
+        <v>88617</v>
       </c>
       <c r="I530" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>88639</v>
+        <v>88638</v>
       </c>
       <c r="K530" t="n">
         <v>4014208</v>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A3F
+          <t xml:space="preserve">//Text $15A3E
 #WRITE(ptr,$5CA8)
 Under the Eyes of Atamoni[END]
 </t>
@@ -27484,12 +27484,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>15A3F</t>
+          <t>15A3E</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>15A59</t>
+          <t>15A58</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -27501,7 +27501,7 @@
         <v>26</v>
       </c>
       <c r="H531" t="n">
-        <v>88639</v>
+        <v>88638</v>
       </c>
       <c r="I531" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>88665</v>
+        <v>88664</v>
       </c>
       <c r="K531" t="n">
         <v>4014208</v>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A59
+          <t xml:space="preserve">//Text $15A58
 #WRITE(ptr,$5CAC)
 Above the Aethersphere[END]
 </t>
@@ -27535,12 +27535,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>15A59</t>
+          <t>15A58</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>15A70</t>
+          <t>15A6F</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -27552,7 +27552,7 @@
         <v>23</v>
       </c>
       <c r="H532" t="n">
-        <v>88665</v>
+        <v>88664</v>
       </c>
       <c r="I532" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>88688</v>
+        <v>88687</v>
       </c>
       <c r="K532" t="n">
         <v>4014208</v>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A70
+          <t xml:space="preserve">//Text $15A6F
 #WRITE(ptr,$5CB0)
 Let's Go after Him[END]
 </t>
@@ -27586,12 +27586,12 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>15A70</t>
+          <t>15A6F</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>15A83</t>
+          <t>15A82</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -27603,7 +27603,7 @@
         <v>19</v>
       </c>
       <c r="H533" t="n">
-        <v>88688</v>
+        <v>88687</v>
       </c>
       <c r="I533" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>88707</v>
+        <v>88706</v>
       </c>
       <c r="K533" t="n">
         <v>4014208</v>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A83
+          <t xml:space="preserve">//Text $15A82
 #WRITE(ptr,$5CB4)
 We Need to Stop [Hugo][END]
 </t>
@@ -27637,12 +27637,12 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>15A83</t>
+          <t>15A82</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>15A99</t>
+          <t>15A98</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -27654,7 +27654,7 @@
         <v>22</v>
       </c>
       <c r="H534" t="n">
-        <v>88707</v>
+        <v>88706</v>
       </c>
       <c r="I534" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>88729</v>
+        <v>88728</v>
       </c>
       <c r="K534" t="n">
         <v>4014208</v>
@@ -27674,7 +27674,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A99
+          <t xml:space="preserve">//Text $15A98
 #WRITE(ptr,$5CB8)
 We Won't Let You Harm the Surface[END]
 </t>
@@ -27688,12 +27688,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>15A99</t>
+          <t>15A98</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>15ABB</t>
+          <t>15ABA</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -27705,7 +27705,7 @@
         <v>34</v>
       </c>
       <c r="H535" t="n">
-        <v>88729</v>
+        <v>88728</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>88763</v>
+        <v>88762</v>
       </c>
       <c r="K535" t="n">
         <v>4014208</v>
@@ -27725,7 +27725,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ABB
+          <t xml:space="preserve">//Text $15ABA
 #WRITE(ptr,$5CBC)
 Get Back Here, Now[END]
 </t>
@@ -27739,12 +27739,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>15ABB</t>
+          <t>15ABA</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>15ACE</t>
+          <t>15ACD</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -27756,7 +27756,7 @@
         <v>19</v>
       </c>
       <c r="H536" t="n">
-        <v>88763</v>
+        <v>88762</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>88782</v>
+        <v>88781</v>
       </c>
       <c r="K536" t="n">
         <v>4014208</v>
@@ -27776,7 +27776,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ACE
+          <t xml:space="preserve">//Text $15ACD
 #WRITE(ptr,$5CC0)
 Not This Way[END]
 </t>
@@ -27790,12 +27790,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>15ACE</t>
+          <t>15ACD</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>15ADB</t>
+          <t>15ADA</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -27807,7 +27807,7 @@
         <v>13</v>
       </c>
       <c r="H537" t="n">
-        <v>88782</v>
+        <v>88781</v>
       </c>
       <c r="I537" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>88795</v>
+        <v>88794</v>
       </c>
       <c r="K537" t="n">
         <v>4014208</v>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ADB
+          <t xml:space="preserve">//Text $15ADA
 #WRITE(ptr,$5CC4)
 Hurry[END]
 </t>
@@ -27841,12 +27841,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>15ADB</t>
+          <t>15ADA</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>15AE1</t>
+          <t>15AE0</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -27858,7 +27858,7 @@
         <v>6</v>
       </c>
       <c r="H538" t="n">
-        <v>88795</v>
+        <v>88794</v>
       </c>
       <c r="I538" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>88801</v>
+        <v>88800</v>
       </c>
       <c r="K538" t="n">
         <v>4014208</v>
@@ -27878,7 +27878,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AE1
+          <t xml:space="preserve">//Text $15AE0
 #WRITE(ptr,$5CC8)
 We Should Hurry[END]
 </t>
@@ -27892,12 +27892,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>15AE1</t>
+          <t>15AE0</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>15AF1</t>
+          <t>15AF0</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -27909,7 +27909,7 @@
         <v>16</v>
       </c>
       <c r="H539" t="n">
-        <v>88801</v>
+        <v>88800</v>
       </c>
       <c r="I539" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>88817</v>
+        <v>88816</v>
       </c>
       <c r="K539" t="n">
         <v>4014208</v>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AF1
+          <t xml:space="preserve">//Text $15AF0
 #WRITE(ptr,$5CCC)
 Don't Dawdle[END]
 </t>
@@ -27943,12 +27943,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>15AF1</t>
+          <t>15AF0</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>15AFE</t>
+          <t>15AFD</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -27960,7 +27960,7 @@
         <v>13</v>
       </c>
       <c r="H540" t="n">
-        <v>88817</v>
+        <v>88816</v>
       </c>
       <c r="I540" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>88830</v>
+        <v>88829</v>
       </c>
       <c r="K540" t="n">
         <v>4014208</v>
@@ -27980,7 +27980,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AFE
+          <t xml:space="preserve">//Text $15AFD
 #WRITE(ptr,$5CD0)
 Not That Way[END]
 </t>
@@ -27994,12 +27994,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>15AFE</t>
+          <t>15AFD</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>15B0B</t>
+          <t>15B0A</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -28011,7 +28011,7 @@
         <v>13</v>
       </c>
       <c r="H541" t="n">
-        <v>88830</v>
+        <v>88829</v>
       </c>
       <c r="I541" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>88843</v>
+        <v>88842</v>
       </c>
       <c r="K541" t="n">
         <v>4014208</v>
@@ -28031,7 +28031,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B0B
+          <t xml:space="preserve">//Text $15B0A
 #WRITE(ptr,$5CD4)
 I Have Other Things to Do[END]
 </t>
@@ -28045,12 +28045,12 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>15B0B</t>
+          <t>15B0A</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>15B25</t>
+          <t>15B24</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -28062,7 +28062,7 @@
         <v>26</v>
       </c>
       <c r="H542" t="n">
-        <v>88843</v>
+        <v>88842</v>
       </c>
       <c r="I542" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>88869</v>
+        <v>88868</v>
       </c>
       <c r="K542" t="n">
         <v>4014208</v>
@@ -28082,7 +28082,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B25
+          <t xml:space="preserve">//Text $15B24
 #WRITE(ptr,$5CD8)
 What We Need to Do[END]
 </t>
@@ -28096,12 +28096,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>15B25</t>
+          <t>15B24</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>15B38</t>
+          <t>15B37</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -28113,7 +28113,7 @@
         <v>19</v>
       </c>
       <c r="H543" t="n">
-        <v>88869</v>
+        <v>88868</v>
       </c>
       <c r="I543" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>88888</v>
+        <v>88887</v>
       </c>
       <c r="K543" t="n">
         <v>4014208</v>
@@ -28133,7 +28133,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B38
+          <t xml:space="preserve">//Text $15B37
 #WRITE(ptr,$5CDC)
 Let's See What's Happening[END]
 </t>
@@ -28147,12 +28147,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>15B38</t>
+          <t>15B37</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>15B53</t>
+          <t>15B52</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -28164,7 +28164,7 @@
         <v>27</v>
       </c>
       <c r="H544" t="n">
-        <v>88888</v>
+        <v>88887</v>
       </c>
       <c r="I544" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>88915</v>
+        <v>88914</v>
       </c>
       <c r="K544" t="n">
         <v>4014208</v>
@@ -28184,7 +28184,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B53
+          <t xml:space="preserve">//Text $15B52
 #WRITE(ptr,$5CE0)
 Let's Talk First[END]
 </t>
@@ -28198,12 +28198,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>15B53</t>
+          <t>15B52</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>15B64</t>
+          <t>15B63</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -28215,7 +28215,7 @@
         <v>17</v>
       </c>
       <c r="H545" t="n">
-        <v>88915</v>
+        <v>88914</v>
       </c>
       <c r="I545" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>88932</v>
+        <v>88931</v>
       </c>
       <c r="K545" t="n">
         <v>4014208</v>
@@ -28235,7 +28235,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B64
+          <t xml:space="preserve">//Text $15B63
 #WRITE(ptr,$5CE4)
 Anyways, Let's Hear Him Out[END]
 </t>
@@ -28249,12 +28249,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>15B64</t>
+          <t>15B63</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>15B80</t>
+          <t>15B7F</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -28266,7 +28266,7 @@
         <v>28</v>
       </c>
       <c r="H546" t="n">
-        <v>88932</v>
+        <v>88931</v>
       </c>
       <c r="I546" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>88960</v>
+        <v>88959</v>
       </c>
       <c r="K546" t="n">
         <v>4014208</v>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B80
+          <t xml:space="preserve">//Text $15B7F
 #WRITE(ptr,$5CE8)
 Other Things to Do[END]
 </t>
@@ -28300,12 +28300,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>15B80</t>
+          <t>15B7F</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>15B93</t>
+          <t>15B92</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -28317,7 +28317,7 @@
         <v>19</v>
       </c>
       <c r="H547" t="n">
-        <v>88960</v>
+        <v>88959</v>
       </c>
       <c r="I547" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>88979</v>
+        <v>88978</v>
       </c>
       <c r="K547" t="n">
         <v>4014208</v>
@@ -28337,7 +28337,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B93
+          <t xml:space="preserve">//Text $15B92
 #WRITE(ptr,$5CEC)
 I Have Other Things to Do Right Now[END]
 </t>
@@ -28351,12 +28351,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>15B93</t>
+          <t>15B92</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>15BB7</t>
+          <t>15BB6</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -28368,7 +28368,7 @@
         <v>36</v>
       </c>
       <c r="H548" t="n">
-        <v>88979</v>
+        <v>88978</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>89015</v>
+        <v>89014</v>
       </c>
       <c r="K548" t="n">
         <v>4014208</v>
@@ -28388,7 +28388,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BB7
+          <t xml:space="preserve">//Text $15BB6
 #WRITE(ptr,$5CF0)
 Let's Talk to the People in Town[END]
 </t>
@@ -28402,12 +28402,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>15BB7</t>
+          <t>15BB6</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>15BD8</t>
+          <t>15BD7</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -28419,7 +28419,7 @@
         <v>33</v>
       </c>
       <c r="H549" t="n">
-        <v>89015</v>
+        <v>89014</v>
       </c>
       <c r="I549" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>89048</v>
+        <v>89047</v>
       </c>
       <c r="K549" t="n">
         <v>4014208</v>
@@ -28439,7 +28439,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BD8
+          <t xml:space="preserve">//Text $15BD7
 #WRITE(ptr,$5CF4)
 Let's Check it Out[END]
 </t>
@@ -28453,12 +28453,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>15BD8</t>
+          <t>15BD7</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>15BEB</t>
+          <t>15BEA</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -28470,7 +28470,7 @@
         <v>19</v>
       </c>
       <c r="H550" t="n">
-        <v>89048</v>
+        <v>89047</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>89067</v>
+        <v>89066</v>
       </c>
       <c r="K550" t="n">
         <v>4014208</v>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BEB
+          <t xml:space="preserve">//Text $15BEA
 #WRITE(ptr,$5CF8)
 Let's Head Outside First[END]
 </t>
@@ -28504,12 +28504,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>15BEB</t>
+          <t>15BEA</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>15C04</t>
+          <t>15C03</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -28521,7 +28521,7 @@
         <v>25</v>
       </c>
       <c r="H551" t="n">
-        <v>89067</v>
+        <v>89066</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>89092</v>
+        <v>89091</v>
       </c>
       <c r="K551" t="n">
         <v>4014208</v>
@@ -28541,7 +28541,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C04
+          <t xml:space="preserve">//Text $15C03
 #WRITE(ptr,$5CFC)
 Let's Stay Here[END]
 </t>
@@ -28555,12 +28555,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>15C04</t>
+          <t>15C03</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>15C14</t>
+          <t>15C13</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -28572,7 +28572,7 @@
         <v>16</v>
       </c>
       <c r="H552" t="n">
-        <v>89092</v>
+        <v>89091</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>89108</v>
+        <v>89107</v>
       </c>
       <c r="K552" t="n">
         <v>4014208</v>
@@ -28592,7 +28592,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C14
+          <t xml:space="preserve">//Text $15C13
 #WRITE(ptr,$5D00)
 North from Here[END]
 </t>
@@ -28606,12 +28606,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>15C14</t>
+          <t>15C13</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>15C24</t>
+          <t>15C23</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -28623,7 +28623,7 @@
         <v>16</v>
       </c>
       <c r="H553" t="n">
-        <v>89108</v>
+        <v>89107</v>
       </c>
       <c r="I553" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>89124</v>
+        <v>89123</v>
       </c>
       <c r="K553" t="n">
         <v>4014208</v>
@@ -28643,7 +28643,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C24
+          <t xml:space="preserve">//Text $15C23
 #WRITE(ptr,$5D04)
 Northeast from Here[END]
 </t>
@@ -28657,12 +28657,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>15C24</t>
+          <t>15C23</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>15C38</t>
+          <t>15C37</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -28674,7 +28674,7 @@
         <v>20</v>
       </c>
       <c r="H554" t="n">
-        <v>89124</v>
+        <v>89123</v>
       </c>
       <c r="I554" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>89144</v>
+        <v>89143</v>
       </c>
       <c r="K554" t="n">
         <v>4014208</v>
@@ -28694,7 +28694,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C38
+          <t xml:space="preserve">//Text $15C37
 #WRITE(ptr,$5D08)
 East from Here[END]
 </t>
@@ -28708,12 +28708,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>15C38</t>
+          <t>15C37</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>15C47</t>
+          <t>15C46</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -28725,7 +28725,7 @@
         <v>15</v>
       </c>
       <c r="H555" t="n">
-        <v>89144</v>
+        <v>89143</v>
       </c>
       <c r="I555" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>89159</v>
+        <v>89158</v>
       </c>
       <c r="K555" t="n">
         <v>4014208</v>
@@ -28745,7 +28745,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C47
+          <t xml:space="preserve">//Text $15C46
 #WRITE(ptr,$5D0C)
 Southeast from Here[END]
 </t>
@@ -28759,12 +28759,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>15C47</t>
+          <t>15C46</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>15C5B</t>
+          <t>15C5A</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -28776,7 +28776,7 @@
         <v>20</v>
       </c>
       <c r="H556" t="n">
-        <v>89159</v>
+        <v>89158</v>
       </c>
       <c r="I556" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>89179</v>
+        <v>89178</v>
       </c>
       <c r="K556" t="n">
         <v>4014208</v>
@@ -28796,7 +28796,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C5B
+          <t xml:space="preserve">//Text $15C5A
 #WRITE(ptr,$5D10)
 South from Here[END]
 </t>
@@ -28810,12 +28810,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>15C5B</t>
+          <t>15C5A</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>15C6B</t>
+          <t>15C6A</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -28827,7 +28827,7 @@
         <v>16</v>
       </c>
       <c r="H557" t="n">
-        <v>89179</v>
+        <v>89178</v>
       </c>
       <c r="I557" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>89195</v>
+        <v>89194</v>
       </c>
       <c r="K557" t="n">
         <v>4014208</v>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C6B
+          <t xml:space="preserve">//Text $15C6A
 #WRITE(ptr,$5D14)
 Southwest from Here[END]
 </t>
@@ -28861,12 +28861,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>15C6B</t>
+          <t>15C6A</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>15C7F</t>
+          <t>15C7E</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -28878,7 +28878,7 @@
         <v>20</v>
       </c>
       <c r="H558" t="n">
-        <v>89195</v>
+        <v>89194</v>
       </c>
       <c r="I558" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>89215</v>
+        <v>89214</v>
       </c>
       <c r="K558" t="n">
         <v>4014208</v>
@@ -28898,7 +28898,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C7F
+          <t xml:space="preserve">//Text $15C7E
 #WRITE(ptr,$5D18)
 West from Here[END]
 </t>
@@ -28912,12 +28912,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>15C7F</t>
+          <t>15C7E</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>15C8E</t>
+          <t>15C8D</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -28929,7 +28929,7 @@
         <v>15</v>
       </c>
       <c r="H559" t="n">
-        <v>89215</v>
+        <v>89214</v>
       </c>
       <c r="I559" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>89230</v>
+        <v>89229</v>
       </c>
       <c r="K559" t="n">
         <v>4014208</v>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C8E
+          <t xml:space="preserve">//Text $15C8D
 #WRITE(ptr,$5D1C)
 Northwest from Here[END]
 </t>
@@ -28963,12 +28963,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>15C8E</t>
+          <t>15C8D</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>15CA2</t>
+          <t>15CA1</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -28980,7 +28980,7 @@
         <v>20</v>
       </c>
       <c r="H560" t="n">
-        <v>89230</v>
+        <v>89229</v>
       </c>
       <c r="I560" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>89250</v>
+        <v>89249</v>
       </c>
       <c r="K560" t="n">
         <v>4014208</v>
@@ -29000,7 +29000,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CA2
+          <t xml:space="preserve">//Text $15CA1
 #WRITE(ptr,$5D20)
 Let's Get on the Leviathan[END]
 </t>
@@ -29014,12 +29014,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>15CA2</t>
+          <t>15CA1</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>15CBD</t>
+          <t>15CBC</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -29031,7 +29031,7 @@
         <v>27</v>
       </c>
       <c r="H561" t="n">
-        <v>89250</v>
+        <v>89249</v>
       </c>
       <c r="I561" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>89277</v>
+        <v>89276</v>
       </c>
       <c r="K561" t="n">
         <v>4014208</v>
@@ -29051,7 +29051,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CBD
+          <t xml:space="preserve">//Text $15CBC
 #WRITE(ptr,$5D24)
 Anyway, to the Leviathan[END]
 </t>
@@ -29065,12 +29065,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>15CBD</t>
+          <t>15CBC</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>15CD6</t>
+          <t>15CD5</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -29082,7 +29082,7 @@
         <v>25</v>
       </c>
       <c r="H562" t="n">
-        <v>89277</v>
+        <v>89276</v>
       </c>
       <c r="I562" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>89302</v>
+        <v>89301</v>
       </c>
       <c r="K562" t="n">
         <v>4014208</v>
@@ -29102,7 +29102,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CD6
+          <t xml:space="preserve">//Text $15CD5
 #WRITE(ptr,$5D28)
 Let's Take the Draconis[END]
 </t>
@@ -29116,12 +29116,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>15CD6</t>
+          <t>15CD5</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>15CEE</t>
+          <t>15CED</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -29133,7 +29133,7 @@
         <v>24</v>
       </c>
       <c r="H563" t="n">
-        <v>89302</v>
+        <v>89301</v>
       </c>
       <c r="I563" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>89326</v>
+        <v>89325</v>
       </c>
       <c r="K563" t="n">
         <v>4014208</v>
@@ -29153,7 +29153,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CEE
+          <t xml:space="preserve">//Text $15CED
 #WRITE(ptr,$5D2C)
 Anyway, to the Draconis[END]
 </t>
@@ -29167,12 +29167,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>15CEE</t>
+          <t>15CED</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>15D06</t>
+          <t>15D05</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -29184,7 +29184,7 @@
         <v>24</v>
       </c>
       <c r="H564" t="n">
-        <v>89326</v>
+        <v>89325</v>
       </c>
       <c r="I564" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>89350</v>
+        <v>89349</v>
       </c>
       <c r="K564" t="n">
         <v>4014208</v>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D06
+          <t xml:space="preserve">//Text $15D05
 #WRITE(ptr,$5D30)
 Let's Head to the Harbor[END]
 </t>
@@ -29218,12 +29218,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>15D06</t>
+          <t>15D05</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>15D1F</t>
+          <t>15D1E</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -29235,7 +29235,7 @@
         <v>25</v>
       </c>
       <c r="H565" t="n">
-        <v>89350</v>
+        <v>89349</v>
       </c>
       <c r="I565" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>89375</v>
+        <v>89374</v>
       </c>
       <c r="K565" t="n">
         <v>4014208</v>
@@ -29255,7 +29255,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D1F
+          <t xml:space="preserve">//Text $15D1E
 #WRITE(ptr,$5D34)
 Let's Head to the Castle[END]
 </t>
@@ -29269,12 +29269,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>15D1F</t>
+          <t>15D1E</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>15D38</t>
+          <t>15D37</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -29286,7 +29286,7 @@
         <v>25</v>
       </c>
       <c r="H566" t="n">
-        <v>89375</v>
+        <v>89374</v>
       </c>
       <c r="I566" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>89400</v>
+        <v>89399</v>
       </c>
       <c r="K566" t="n">
         <v>4014208</v>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D38
+          <t xml:space="preserve">//Text $15D37
 #WRITE(ptr,$5D38)
 Respite[END]
 </t>
@@ -29320,12 +29320,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>15D38</t>
+          <t>15D37</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>15D40</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -29337,7 +29337,7 @@
         <v>8</v>
       </c>
       <c r="H567" t="n">
-        <v>89400</v>
+        <v>89399</v>
       </c>
       <c r="I567" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>89408</v>
+        <v>89407</v>
       </c>
       <c r="K567" t="n">
         <v>4014208</v>
@@ -29357,7 +29357,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D40
+          <t xml:space="preserve">//Text $15D3F
 #WRITE(ptr,$5D3C)
 The Guardian Dragon is Important[END]
 </t>
@@ -29371,12 +29371,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>15D40</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>15D61</t>
+          <t>15D60</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -29388,7 +29388,7 @@
         <v>33</v>
       </c>
       <c r="H568" t="n">
-        <v>89408</v>
+        <v>89407</v>
       </c>
       <c r="I568" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>89441</v>
+        <v>89440</v>
       </c>
       <c r="K568" t="n">
         <v>4014208</v>
@@ -29408,7 +29408,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D61
+          <t xml:space="preserve">//Text $15D60
 #WRITE(ptr,$5D40)
 [Igtenos] First[END]
 </t>
@@ -29422,12 +29422,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>15D61</t>
+          <t>15D60</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>15D6D</t>
+          <t>15D6C</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -29439,7 +29439,7 @@
         <v>12</v>
       </c>
       <c r="H569" t="n">
-        <v>89441</v>
+        <v>89440</v>
       </c>
       <c r="I569" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>89453</v>
+        <v>89452</v>
       </c>
       <c r="K569" t="n">
         <v>4014208</v>
@@ -29459,7 +29459,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D6D
+          <t xml:space="preserve">//Text $15D6C
 #WRITE(ptr,$5D44)
 Take the Device to Radisrol[END]
 </t>
@@ -29473,12 +29473,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>15D6D</t>
+          <t>15D6C</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>15D89</t>
+          <t>15D88</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -29490,7 +29490,7 @@
         <v>28</v>
       </c>
       <c r="H570" t="n">
-        <v>89453</v>
+        <v>89452</v>
       </c>
       <c r="I570" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>89481</v>
+        <v>89480</v>
       </c>
       <c r="K570" t="n">
         <v>4014208</v>
@@ -29510,7 +29510,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D89
+          <t xml:space="preserve">//Text $15D88
 #WRITE(ptr,$5D48)
 Top Priorty: Aeth'er Cruiser[END]
 </t>
@@ -29524,12 +29524,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>15D89</t>
+          <t>15D88</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>15DA6</t>
+          <t>15DA5</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -29541,7 +29541,7 @@
         <v>29</v>
       </c>
       <c r="H571" t="n">
-        <v>89481</v>
+        <v>89480</v>
       </c>
       <c r="I571" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>89510</v>
+        <v>89509</v>
       </c>
       <c r="K571" t="n">
         <v>4014208</v>
@@ -29561,7 +29561,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DA6
+          <t xml:space="preserve">//Text $15DA5
 #WRITE(ptr,$5D4C)
 No Business at This Town[END]
 </t>
@@ -29575,12 +29575,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>15DA6</t>
+          <t>15DA5</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>15DBF</t>
+          <t>15DBE</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -29592,7 +29592,7 @@
         <v>25</v>
       </c>
       <c r="H572" t="n">
-        <v>89510</v>
+        <v>89509</v>
       </c>
       <c r="I572" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>89535</v>
+        <v>89534</v>
       </c>
       <c r="K572" t="n">
         <v>4014208</v>
@@ -29612,7 +29612,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DBF
+          <t xml:space="preserve">//Text $15DBE
 #WRITE(ptr,$5D50)
 My Sister's Thoughts[END]
 </t>
@@ -29626,12 +29626,12 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>15DBF</t>
+          <t>15DBE</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>15DD4</t>
+          <t>15DD3</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -29643,7 +29643,7 @@
         <v>21</v>
       </c>
       <c r="H573" t="n">
-        <v>89535</v>
+        <v>89534</v>
       </c>
       <c r="I573" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>89556</v>
+        <v>89555</v>
       </c>
       <c r="K573" t="n">
         <v>4014208</v>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DD4
+          <t xml:space="preserve">//Text $15DD3
 #WRITE(ptr,$5D54)
 Race - 1[END]
 </t>
@@ -29677,12 +29677,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>15DD4</t>
+          <t>15DD3</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>15DDD</t>
+          <t>15DDC</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -29694,7 +29694,7 @@
         <v>9</v>
       </c>
       <c r="H574" t="n">
-        <v>89556</v>
+        <v>89555</v>
       </c>
       <c r="I574" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>89565</v>
+        <v>89564</v>
       </c>
       <c r="K574" t="n">
         <v>4014208</v>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DDD
+          <t xml:space="preserve">//Text $15DDC
 #WRITE(ptr,$5D58)
 Race - 2[END]
 </t>
@@ -29728,12 +29728,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>15DDD</t>
+          <t>15DDC</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>15DE6</t>
+          <t>15DE5</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -29745,7 +29745,7 @@
         <v>9</v>
       </c>
       <c r="H575" t="n">
-        <v>89565</v>
+        <v>89564</v>
       </c>
       <c r="I575" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>89574</v>
+        <v>89573</v>
       </c>
       <c r="K575" t="n">
         <v>4014208</v>
@@ -29765,7 +29765,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DE6
+          <t xml:space="preserve">//Text $15DE5
 #WRITE(ptr,$5D5C)
 Question![END]
 </t>
@@ -29779,12 +29779,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>15DE6</t>
+          <t>15DE5</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>15DF0</t>
+          <t>15DEF</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -29796,7 +29796,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="n">
-        <v>89574</v>
+        <v>89573</v>
       </c>
       <c r="I576" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>89584</v>
+        <v>89583</v>
       </c>
       <c r="K576" t="n">
         <v>4014208</v>
@@ -29816,7 +29816,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DF0
+          <t xml:space="preserve">//Text $15DEF
 #WRITE(ptr,$5D60)
 Ready![END]
 </t>
@@ -29830,12 +29830,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>15DF0</t>
+          <t>15DEF</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>15DF7</t>
+          <t>15DF6</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -29847,7 +29847,7 @@
         <v>7</v>
       </c>
       <c r="H577" t="n">
-        <v>89584</v>
+        <v>89583</v>
       </c>
       <c r="I577" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>89591</v>
+        <v>89590</v>
       </c>
       <c r="K577" t="n">
         <v>4014208</v>
@@ -29867,7 +29867,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DF7
+          <t xml:space="preserve">//Text $15DF6
 #WRITE(ptr,$5D64)
 Absolutely Correct![END]
 </t>
@@ -29881,12 +29881,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>15DF7</t>
+          <t>15DF6</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>15E0B</t>
+          <t>15E0A</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -29898,7 +29898,7 @@
         <v>20</v>
       </c>
       <c r="H578" t="n">
-        <v>89591</v>
+        <v>89590</v>
       </c>
       <c r="I578" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>89611</v>
+        <v>89610</v>
       </c>
       <c r="K578" t="n">
         <v>4014208</v>
@@ -29918,7 +29918,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E0B
+          <t xml:space="preserve">//Text $15E0A
 #WRITE(ptr,$5D68)
 Still Practicing[END]
 </t>
@@ -29932,12 +29932,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>15E0B</t>
+          <t>15E0A</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>15E1C</t>
+          <t>15E1B</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -29949,7 +29949,7 @@
         <v>17</v>
       </c>
       <c r="H579" t="n">
-        <v>89611</v>
+        <v>89610</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>89628</v>
+        <v>89627</v>
       </c>
       <c r="K579" t="n">
         <v>4014208</v>
@@ -29969,7 +29969,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E1C
+          <t xml:space="preserve">//Text $15E1B
 #WRITE(ptr,$5D6C)
 Expedition [Stahn][END]
 </t>
@@ -29983,12 +29983,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>15E1C</t>
+          <t>15E1B</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>15E2D</t>
+          <t>15E2C</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -30000,7 +30000,7 @@
         <v>17</v>
       </c>
       <c r="H580" t="n">
-        <v>89628</v>
+        <v>89627</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>89645</v>
+        <v>89644</v>
       </c>
       <c r="K580" t="n">
         <v>4014208</v>
@@ -30020,7 +30020,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E2D
+          <t xml:space="preserve">//Text $15E2C
 #WRITE(ptr,$5D70)
 Fortune - 1[END]
 </t>
@@ -30034,12 +30034,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>15E2D</t>
+          <t>15E2C</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>15E39</t>
+          <t>15E38</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -30051,7 +30051,7 @@
         <v>12</v>
       </c>
       <c r="H581" t="n">
-        <v>89645</v>
+        <v>89644</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>89657</v>
+        <v>89656</v>
       </c>
       <c r="K581" t="n">
         <v>4014208</v>
@@ -30071,7 +30071,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E39
+          <t xml:space="preserve">//Text $15E38
 #WRITE(ptr,$5D74)
 Fortune - 2[END]
 </t>
@@ -30085,12 +30085,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>15E39</t>
+          <t>15E38</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>15E45</t>
+          <t>15E44</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -30102,7 +30102,7 @@
         <v>12</v>
       </c>
       <c r="H582" t="n">
-        <v>89657</v>
+        <v>89656</v>
       </c>
       <c r="I582" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>89669</v>
+        <v>89668</v>
       </c>
       <c r="K582" t="n">
         <v>4014208</v>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E45
+          <t xml:space="preserve">//Text $15E44
 #WRITE(ptr,$5D78)
 Fortune - 3[END]
 </t>
@@ -30136,12 +30136,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>15E45</t>
+          <t>15E44</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>15E51</t>
+          <t>15E50</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -30153,7 +30153,7 @@
         <v>12</v>
       </c>
       <c r="H583" t="n">
-        <v>89669</v>
+        <v>89668</v>
       </c>
       <c r="I583" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>89681</v>
+        <v>89680</v>
       </c>
       <c r="K583" t="n">
         <v>4014208</v>
@@ -30173,7 +30173,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E51
+          <t xml:space="preserve">//Text $15E50
 #WRITE(ptr,$5D7C)
 Fortune - 4[END]
 </t>
@@ -30187,12 +30187,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>15E51</t>
+          <t>15E50</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>15E5D</t>
+          <t>15E5C</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -30204,7 +30204,7 @@
         <v>12</v>
       </c>
       <c r="H584" t="n">
-        <v>89681</v>
+        <v>89680</v>
       </c>
       <c r="I584" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>89693</v>
+        <v>89692</v>
       </c>
       <c r="K584" t="n">
         <v>4014208</v>
@@ -30224,7 +30224,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E5D
+          <t xml:space="preserve">//Text $15E5C
 #WRITE(ptr,$5D80)
 Fortune - 5[END]
 </t>
@@ -30238,12 +30238,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>15E5D</t>
+          <t>15E5C</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>15E69</t>
+          <t>15E68</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -30255,7 +30255,7 @@
         <v>12</v>
       </c>
       <c r="H585" t="n">
-        <v>89693</v>
+        <v>89692</v>
       </c>
       <c r="I585" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>89705</v>
+        <v>89704</v>
       </c>
       <c r="K585" t="n">
         <v>4014208</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E69
+          <t xml:space="preserve">//Text $15E68
 #WRITE(ptr,$5D84)
 Fortune - 6[END]
 </t>
@@ -30289,12 +30289,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>15E69</t>
+          <t>15E68</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>15E75</t>
+          <t>15E74</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -30306,7 +30306,7 @@
         <v>12</v>
       </c>
       <c r="H586" t="n">
-        <v>89705</v>
+        <v>89704</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>89717</v>
+        <v>89716</v>
       </c>
       <c r="K586" t="n">
         <v>4014208</v>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E75
+          <t xml:space="preserve">//Text $15E74
 #WRITE(ptr,$5D88)
 Fortune - 7[END]
 </t>
@@ -30340,12 +30340,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>15E75</t>
+          <t>15E74</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>15E81</t>
+          <t>15E80</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -30357,7 +30357,7 @@
         <v>12</v>
       </c>
       <c r="H587" t="n">
-        <v>89717</v>
+        <v>89716</v>
       </c>
       <c r="I587" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>89729</v>
+        <v>89728</v>
       </c>
       <c r="K587" t="n">
         <v>4014208</v>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E81
+          <t xml:space="preserve">//Text $15E80
 #WRITE(ptr,$5D8C)
 "[Batista] Bomb"[END]
 </t>
@@ -30391,12 +30391,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>15E81</t>
+          <t>15E80</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>15E8E</t>
+          <t>15E8D</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -30408,7 +30408,7 @@
         <v>13</v>
       </c>
       <c r="H588" t="n">
-        <v>89729</v>
+        <v>89728</v>
       </c>
       <c r="I588" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>89742</v>
+        <v>89741</v>
       </c>
       <c r="K588" t="n">
         <v>4014208</v>
@@ -30428,7 +30428,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E8E
+          <t xml:space="preserve">//Text $15E8D
 #WRITE(ptr,$5D90)
 [Philia]'s True Feelings[END]
 </t>
@@ -30442,12 +30442,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>15E8E</t>
+          <t>15E8D</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>15EA4</t>
+          <t>15EA3</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -30459,7 +30459,7 @@
         <v>22</v>
       </c>
       <c r="H589" t="n">
-        <v>89742</v>
+        <v>89741</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>89764</v>
+        <v>89763</v>
       </c>
       <c r="K589" t="n">
         <v>4014208</v>
@@ -30479,7 +30479,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EA4
+          <t xml:space="preserve">//Text $15EA3
 #WRITE(ptr,$5D94)
 A Time for Dreaming[END]
 </t>
@@ -30493,12 +30493,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>15EA4</t>
+          <t>15EA3</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>15EB8</t>
+          <t>15EB7</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -30510,7 +30510,7 @@
         <v>20</v>
       </c>
       <c r="H590" t="n">
-        <v>89764</v>
+        <v>89763</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>89784</v>
+        <v>89783</v>
       </c>
       <c r="K590" t="n">
         <v>4014208</v>
@@ -30530,7 +30530,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EB8
+          <t xml:space="preserve">//Text $15EB7
 #WRITE(ptr,$5D98)
 He's Me, I'm Him, so he's...[END]
 </t>
@@ -30544,12 +30544,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>15EB8</t>
+          <t>15EB7</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>15ED5</t>
+          <t>15ED4</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -30561,7 +30561,7 @@
         <v>29</v>
       </c>
       <c r="H591" t="n">
-        <v>89784</v>
+        <v>89783</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>89813</v>
+        <v>89812</v>
       </c>
       <c r="K591" t="n">
         <v>4014208</v>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ED5
+          <t xml:space="preserve">//Text $15ED4
 #WRITE(ptr,$5D9C)
 [Rembrandt]'s Talent[END]
 </t>
@@ -30595,12 +30595,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>15ED5</t>
+          <t>15ED4</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>15EE4</t>
+          <t>15EE3</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -30612,7 +30612,7 @@
         <v>15</v>
       </c>
       <c r="H592" t="n">
-        <v>89813</v>
+        <v>89812</v>
       </c>
       <c r="I592" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>89828</v>
+        <v>89827</v>
       </c>
       <c r="K592" t="n">
         <v>4014208</v>
@@ -30632,7 +30632,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EE4
+          <t xml:space="preserve">//Text $15EE3
 #WRITE(ptr,$5DA0)
 Outtake 1[END]
 </t>
@@ -30646,12 +30646,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>15EE4</t>
+          <t>15EE3</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>15EEE</t>
+          <t>15EED</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -30663,7 +30663,7 @@
         <v>10</v>
       </c>
       <c r="H593" t="n">
-        <v>89828</v>
+        <v>89827</v>
       </c>
       <c r="I593" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>89838</v>
+        <v>89837</v>
       </c>
       <c r="K593" t="n">
         <v>4014208</v>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EEE
+          <t xml:space="preserve">//Text $15EED
 #WRITE(ptr,$5DA4)
 Outtake 2[END]
 </t>
@@ -30697,12 +30697,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>15EEE</t>
+          <t>15EED</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>15EF8</t>
+          <t>15EF7</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -30714,7 +30714,7 @@
         <v>10</v>
       </c>
       <c r="H594" t="n">
-        <v>89838</v>
+        <v>89837</v>
       </c>
       <c r="I594" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>89848</v>
+        <v>89847</v>
       </c>
       <c r="K594" t="n">
         <v>4014208</v>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EF8
+          <t xml:space="preserve">//Text $15EF7
 #WRITE(ptr,$5DA8)
 Bonus Footage: Backstage[END]
 </t>
@@ -30748,12 +30748,12 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>15EF8</t>
+          <t>15EF7</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>15F11</t>
+          <t>15F10</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -30765,7 +30765,7 @@
         <v>25</v>
       </c>
       <c r="H595" t="n">
-        <v>89848</v>
+        <v>89847</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>89873</v>
+        <v>89872</v>
       </c>
       <c r="K595" t="n">
         <v>4014208</v>
@@ -30785,7 +30785,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F11
+          <t xml:space="preserve">//Text $15F10
 #WRITE(ptr,$5DAC)
 Phantasia[END]
 </t>
@@ -30799,12 +30799,12 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>15F11</t>
+          <t>15F10</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>15F1B</t>
+          <t>15F1A</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -30816,7 +30816,7 @@
         <v>10</v>
       </c>
       <c r="H596" t="n">
-        <v>89873</v>
+        <v>89872</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>89883</v>
+        <v>89882</v>
       </c>
       <c r="K596" t="n">
         <v>4014208</v>
@@ -30836,7 +30836,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F1B
+          <t xml:space="preserve">//Text $15F1A
 #WRITE(ptr,$5DB0)
 The Abyss[END]
 </t>
@@ -30850,12 +30850,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>15F1B</t>
+          <t>15F1A</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>15F25</t>
+          <t>15F24</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -30867,7 +30867,7 @@
         <v>10</v>
       </c>
       <c r="H597" t="n">
-        <v>89883</v>
+        <v>89882</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>89893</v>
+        <v>89892</v>
       </c>
       <c r="K597" t="n">
         <v>4014208</v>
@@ -30887,7 +30887,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F25
+          <t xml:space="preserve">//Text $15F24
 #WRITE(ptr,$5DB4)
 "Tales of" Series[END]
 </t>
@@ -30901,12 +30901,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>15F25</t>
+          <t>15F24</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>15F37</t>
+          <t>15F36</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -30918,7 +30918,7 @@
         <v>18</v>
       </c>
       <c r="H598" t="n">
-        <v>89893</v>
+        <v>89892</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>89911</v>
+        <v>89910</v>
       </c>
       <c r="K598" t="n">
         <v>4014208</v>
@@ -30938,7 +30938,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F37
+          <t xml:space="preserve">//Text $15F36
 #WRITE(ptr,$5DB8)
 Tales of Destiny[END]
 </t>
@@ -30952,12 +30952,12 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>15F37</t>
+          <t>15F36</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>15F48</t>
+          <t>15F47</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -30969,7 +30969,7 @@
         <v>17</v>
       </c>
       <c r="H599" t="n">
-        <v>89911</v>
+        <v>89910</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>89928</v>
+        <v>89927</v>
       </c>
       <c r="K599" t="n">
         <v>4014208</v>
@@ -30989,7 +30989,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F48
+          <t xml:space="preserve">//Text $15F47
 #WRITE(ptr,$5DBC)
 [Reynolds] is Useful[END]
 </t>
@@ -31003,12 +31003,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>15F48</t>
+          <t>15F47</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>15F58</t>
+          <t>15F57</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -31020,7 +31020,7 @@
         <v>16</v>
       </c>
       <c r="H600" t="n">
-        <v>89928</v>
+        <v>89927</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>89944</v>
+        <v>89943</v>
       </c>
       <c r="K600" t="n">
         <v>4014208</v>
@@ -31040,7 +31040,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F58
+          <t xml:space="preserve">//Text $15F57
 #WRITE(ptr,$5DC0)
 [Ritora]'s Hologram Is Amazing![END]
 </t>
@@ -31054,12 +31054,12 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>15F58</t>
+          <t>15F57</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>15F75</t>
+          <t>15F74</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -31071,7 +31071,7 @@
         <v>29</v>
       </c>
       <c r="H601" t="n">
-        <v>89944</v>
+        <v>89943</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>89973</v>
+        <v>89972</v>
       </c>
       <c r="K601" t="n">
         <v>4014208</v>
@@ -31091,7 +31091,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F75
+          <t xml:space="preserve">//Text $15F74
 #WRITE(ptr,$5DC4)
 We've Been Together All Along[END]
 </t>
@@ -31105,12 +31105,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>15F75</t>
+          <t>15F74</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>15F93</t>
+          <t>15F92</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -31122,7 +31122,7 @@
         <v>30</v>
       </c>
       <c r="H602" t="n">
-        <v>89973</v>
+        <v>89972</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>90003</v>
+        <v>90002</v>
       </c>
       <c r="K602" t="n">
         <v>4014208</v>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F93
+          <t xml:space="preserve">//Text $15F92
 #WRITE(ptr,$5DC8)
 [END]
 </t>
@@ -31156,12 +31156,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
+          <t>15F92</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
           <t>15F93</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>15F94</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -31173,15 +31173,15 @@
         <v>1</v>
       </c>
       <c r="H603" t="n">
+        <v>90002</v>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J603" t="n">
         <v>90003</v>
-      </c>
-      <c r="I603" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J603" t="n">
-        <v>90004</v>
       </c>
       <c r="K603" t="n">
         <v>4014208</v>
@@ -31193,7 +31193,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F94
+          <t xml:space="preserve">//Text $15F93
 #WRITE(ptr,$5DCC)
 [END]
 </t>
@@ -31207,12 +31207,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
+          <t>15F93</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
           <t>15F94</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>15F95</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -31224,15 +31224,15 @@
         <v>1</v>
       </c>
       <c r="H604" t="n">
+        <v>90003</v>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J604" t="n">
         <v>90004</v>
-      </c>
-      <c r="I604" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J604" t="n">
-        <v>90005</v>
       </c>
       <c r="K604" t="n">
         <v>4014208</v>
@@ -31244,7 +31244,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F95
+          <t xml:space="preserve">//Text $15F94
 #WRITE(ptr,$5DD0)
 [END]
 </t>
@@ -31258,12 +31258,12 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
+          <t>15F94</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
           <t>15F95</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>15F96</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -31275,15 +31275,15 @@
         <v>1</v>
       </c>
       <c r="H605" t="n">
+        <v>90004</v>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J605" t="n">
         <v>90005</v>
-      </c>
-      <c r="I605" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J605" t="n">
-        <v>90006</v>
       </c>
       <c r="K605" t="n">
         <v>4014208</v>
@@ -31295,7 +31295,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F96
+          <t xml:space="preserve">//Text $15F95
 #WRITE(ptr,$5DD4)
 [END]
 </t>
@@ -31309,12 +31309,12 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
+          <t>15F95</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
           <t>15F96</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr">
-        <is>
-          <t>15F97</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -31326,15 +31326,15 @@
         <v>1</v>
       </c>
       <c r="H606" t="n">
+        <v>90005</v>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J606" t="n">
         <v>90006</v>
-      </c>
-      <c r="I606" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J606" t="n">
-        <v>90007</v>
       </c>
       <c r="K606" t="n">
         <v>4014208</v>
@@ -31346,7 +31346,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F97
+          <t xml:space="preserve">//Text $15F96
 #WRITE(ptr,$5DD8)
 [END]
 </t>
@@ -31360,12 +31360,12 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
+          <t>15F96</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
           <t>15F97</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>15F98</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -31377,15 +31377,15 @@
         <v>1</v>
       </c>
       <c r="H607" t="n">
+        <v>90006</v>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J607" t="n">
         <v>90007</v>
-      </c>
-      <c r="I607" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J607" t="n">
-        <v>90008</v>
       </c>
       <c r="K607" t="n">
         <v>4014208</v>
@@ -31397,7 +31397,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F98
+          <t xml:space="preserve">//Text $15F97
 #WRITE(ptr,$5DDC)
 [END]
 </t>
@@ -31411,12 +31411,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
+          <t>15F97</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
           <t>15F98</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>15F99</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -31428,15 +31428,15 @@
         <v>1</v>
       </c>
       <c r="H608" t="n">
+        <v>90007</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J608" t="n">
         <v>90008</v>
-      </c>
-      <c r="I608" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J608" t="n">
-        <v>90009</v>
       </c>
       <c r="K608" t="n">
         <v>4014208</v>
@@ -31448,7 +31448,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F99
+          <t xml:space="preserve">//Text $15F98
 #WRITE(ptr,$5DE0)
 [END]
 </t>
@@ -31462,12 +31462,12 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
+          <t>15F98</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
           <t>15F99</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>15F9A</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -31479,15 +31479,15 @@
         <v>1</v>
       </c>
       <c r="H609" t="n">
+        <v>90008</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
         <v>90009</v>
-      </c>
-      <c r="I609" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J609" t="n">
-        <v>90010</v>
       </c>
       <c r="K609" t="n">
         <v>4014208</v>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9A
+          <t xml:space="preserve">//Text $15F99
 #WRITE(ptr,$5DE4)
 [END]
 </t>
@@ -31513,12 +31513,12 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
+          <t>15F99</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
           <t>15F9A</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>15F9B</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -31530,15 +31530,15 @@
         <v>1</v>
       </c>
       <c r="H610" t="n">
+        <v>90009</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J610" t="n">
         <v>90010</v>
-      </c>
-      <c r="I610" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J610" t="n">
-        <v>90011</v>
       </c>
       <c r="K610" t="n">
         <v>4014208</v>
@@ -31550,7 +31550,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9B
+          <t xml:space="preserve">//Text $15F9A
 #WRITE(ptr,$5DE8)
 [END]
 </t>
@@ -31564,12 +31564,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
+          <t>15F9A</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
           <t>15F9B</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>15F9C</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -31581,15 +31581,15 @@
         <v>1</v>
       </c>
       <c r="H611" t="n">
+        <v>90010</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J611" t="n">
         <v>90011</v>
-      </c>
-      <c r="I611" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J611" t="n">
-        <v>90012</v>
       </c>
       <c r="K611" t="n">
         <v>4014208</v>
@@ -31601,7 +31601,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9C
+          <t xml:space="preserve">//Text $15F9B
 #WRITE(ptr,$5DEC)
 [END]
 </t>
@@ -31615,12 +31615,12 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
+          <t>15F9B</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
           <t>15F9C</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>15F9D</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -31632,15 +31632,15 @@
         <v>1</v>
       </c>
       <c r="H612" t="n">
+        <v>90011</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J612" t="n">
         <v>90012</v>
-      </c>
-      <c r="I612" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J612" t="n">
-        <v>90013</v>
       </c>
       <c r="K612" t="n">
         <v>4014208</v>
@@ -31652,7 +31652,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9D
+          <t xml:space="preserve">//Text $15F9C
 #WRITE(ptr,$5DF0)
 [END]
 </t>
@@ -31666,12 +31666,12 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
+          <t>15F9C</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
           <t>15F9D</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>15F9E</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -31683,15 +31683,15 @@
         <v>1</v>
       </c>
       <c r="H613" t="n">
+        <v>90012</v>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>../../../PAK3/00016_0003.unknown.new</t>
+        </is>
+      </c>
+      <c r="J613" t="n">
         <v>90013</v>
-      </c>
-      <c r="I613" t="inlineStr">
-        <is>
-          <t>../../../PAK3/00016_0003.unknown.new</t>
-        </is>
-      </c>
-      <c r="J613" t="n">
-        <v>90014</v>
       </c>
       <c r="K613" t="n">
         <v>4014208</v>
@@ -31703,7 +31703,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9E
+          <t xml:space="preserve">//Text $15F9D
 #WRITE(ptr,$5DF4)
 Another Swordian[END]
 </t>
@@ -31717,12 +31717,12 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>15F9E</t>
+          <t>15F9D</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>15FAF</t>
+          <t>15FAE</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -31734,7 +31734,7 @@
         <v>17</v>
       </c>
       <c r="H614" t="n">
-        <v>90014</v>
+        <v>90013</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>90031</v>
+        <v>90030</v>
       </c>
       <c r="K614" t="n">
         <v>4014208</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FAF
+          <t xml:space="preserve">//Text $15FAE
 #WRITE(ptr,$5DF8)
 Why?[END]
 </t>
@@ -31768,12 +31768,12 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>15FAF</t>
+          <t>15FAE</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>15FB4</t>
+          <t>15FB3</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -31785,7 +31785,7 @@
         <v>5</v>
       </c>
       <c r="H615" t="n">
-        <v>90031</v>
+        <v>90030</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>90036</v>
+        <v>90035</v>
       </c>
       <c r="K615" t="n">
         <v>4014208</v>
@@ -31805,7 +31805,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FB4
+          <t xml:space="preserve">//Text $15FB3
 #WRITE(ptr,$5DFC)
 [Marian]'s Lecture..[END]
 </t>
@@ -31819,12 +31819,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>15FB4</t>
+          <t>15FB3</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>15FC6</t>
+          <t>15FC5</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -31836,7 +31836,7 @@
         <v>18</v>
       </c>
       <c r="H616" t="n">
-        <v>90036</v>
+        <v>90035</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>90054</v>
+        <v>90053</v>
       </c>
       <c r="K616" t="n">
         <v>4014208</v>
@@ -31856,7 +31856,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FC6
+          <t xml:space="preserve">//Text $15FC5
 #WRITE(ptr,$5E00)
 We're up Against 3 People![END]
 </t>
@@ -31870,12 +31870,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>15FC6</t>
+          <t>15FC5</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>15FE1</t>
+          <t>15FE0</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -31887,7 +31887,7 @@
         <v>27</v>
       </c>
       <c r="H617" t="n">
-        <v>90054</v>
+        <v>90053</v>
       </c>
       <c r="I617" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>90081</v>
+        <v>90080</v>
       </c>
       <c r="K617" t="n">
         <v>4014208</v>
@@ -31907,7 +31907,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FE1
+          <t xml:space="preserve">//Text $15FE0
 #WRITE(ptr,$5E04)
 [Hugo] and [Rutee][END]
 </t>
@@ -31921,12 +31921,12 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>15FE1</t>
+          <t>15FE0</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>15FF1</t>
+          <t>15FF0</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -31938,7 +31938,7 @@
         <v>16</v>
       </c>
       <c r="H618" t="n">
-        <v>90081</v>
+        <v>90080</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>90097</v>
+        <v>90096</v>
       </c>
       <c r="K618" t="n">
         <v>4014208</v>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FF1
+          <t xml:space="preserve">//Text $15FF0
 #WRITE(ptr,$5E08)
 Not [Dymlos] and [Atwight]..[END]
 </t>
@@ -31972,12 +31972,12 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>15FF1</t>
+          <t>15FF0</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>16006</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -31989,7 +31989,7 @@
         <v>22</v>
       </c>
       <c r="H619" t="n">
-        <v>90097</v>
+        <v>90096</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>90119</v>
+        <v>90118</v>
       </c>
       <c r="K619" t="n">
         <v>4014208</v>
@@ -32009,7 +32009,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16007
+          <t xml:space="preserve">//Text $16006
 #WRITE(ptr,$5E0C)
 [Hugo]'s Plan[END]
 </t>
@@ -32023,12 +32023,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>16006</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>16013</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
@@ -32040,7 +32040,7 @@
         <v>13</v>
       </c>
       <c r="H620" t="n">
-        <v>90119</v>
+        <v>90118</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>90132</v>
+        <v>90131</v>
       </c>
       <c r="K620" t="n">
         <v>4014208</v>
@@ -32060,7 +32060,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16014
+          <t xml:space="preserve">//Text $16013
 #WRITE(ptr,$5E10)
 Chal's Concern[END]
 </t>
@@ -32074,12 +32074,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>16013</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>16023</t>
+          <t>16022</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -32091,7 +32091,7 @@
         <v>15</v>
       </c>
       <c r="H621" t="n">
-        <v>90132</v>
+        <v>90131</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
@@ -32099,7 +32099,7 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>90147</v>
+        <v>90146</v>
       </c>
       <c r="K621" t="n">
         <v>4014208</v>
@@ -32111,7 +32111,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16023
+          <t xml:space="preserve">//Text $16022
 #WRITE(ptr,$5E14)
 [Atwight] the Oasis[END]
 </t>
@@ -32125,12 +32125,12 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>16023</t>
+          <t>16022</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>16033</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -32142,7 +32142,7 @@
         <v>16</v>
       </c>
       <c r="H622" t="n">
-        <v>90147</v>
+        <v>90146</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>90163</v>
+        <v>90162</v>
       </c>
       <c r="K622" t="n">
         <v>4014208</v>
@@ -32162,7 +32162,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16033
+          <t xml:space="preserve">//Text $16032
 #WRITE(ptr,$5E18)
 The Two of Us[END]
 </t>
@@ -32176,12 +32176,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>16033</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>16041</t>
+          <t>16040</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -32193,7 +32193,7 @@
         <v>14</v>
       </c>
       <c r="H623" t="n">
-        <v>90163</v>
+        <v>90162</v>
       </c>
       <c r="I623" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>90177</v>
+        <v>90176</v>
       </c>
       <c r="K623" t="n">
         <v>4014208</v>
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16041
+          <t xml:space="preserve">//Text $16040
 #WRITE(ptr,$5E1C)
 Softy Kreem![END]
 </t>
@@ -32227,12 +32227,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>16041</t>
+          <t>16040</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>1604E</t>
+          <t>1604D</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -32244,7 +32244,7 @@
         <v>13</v>
       </c>
       <c r="H624" t="n">
-        <v>90177</v>
+        <v>90176</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>90190</v>
+        <v>90189</v>
       </c>
       <c r="K624" t="n">
         <v>4014208</v>
@@ -32264,7 +32264,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1604E
+          <t xml:space="preserve">//Text $1604D
 #WRITE(ptr,$5E20)
 So Dashing![END]
 </t>
@@ -32278,12 +32278,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>1604E</t>
+          <t>1604D</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>1605A</t>
+          <t>16059</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -32295,7 +32295,7 @@
         <v>12</v>
       </c>
       <c r="H625" t="n">
-        <v>90190</v>
+        <v>90189</v>
       </c>
       <c r="I625" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>90202</v>
+        <v>90201</v>
       </c>
       <c r="K625" t="n">
         <v>4014208</v>
@@ -32315,7 +32315,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1605A
+          <t xml:space="preserve">//Text $16059
 #WRITE(ptr,$5E24)
 Irritated [Lion][END]
 </t>
@@ -32329,12 +32329,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>1605A</t>
+          <t>16059</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>1606A</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -32346,7 +32346,7 @@
         <v>16</v>
       </c>
       <c r="H626" t="n">
-        <v>90202</v>
+        <v>90201</v>
       </c>
       <c r="I626" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>90218</v>
+        <v>90217</v>
       </c>
       <c r="K626" t="n">
         <v>4014208</v>
@@ -32366,7 +32366,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1606A
+          <t xml:space="preserve">//Text $16069
 #WRITE(ptr,$5E28)
 Always Together!?[END]
 </t>
@@ -32380,12 +32380,12 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>1606A</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>1607C</t>
+          <t>1607B</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -32397,7 +32397,7 @@
         <v>18</v>
       </c>
       <c r="H627" t="n">
-        <v>90218</v>
+        <v>90217</v>
       </c>
       <c r="I627" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>90236</v>
+        <v>90235</v>
       </c>
       <c r="K627" t="n">
         <v>4014208</v>
@@ -32417,7 +32417,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1607C
+          <t xml:space="preserve">//Text $1607B
 #WRITE(ptr,$5E2C)
 Family..[END]
 </t>
@@ -32431,12 +32431,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>1607C</t>
+          <t>1607B</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -32448,7 +32448,7 @@
         <v>9</v>
       </c>
       <c r="H628" t="n">
-        <v>90236</v>
+        <v>90235</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>90245</v>
+        <v>90244</v>
       </c>
       <c r="K628" t="n">
         <v>4014208</v>
@@ -32468,7 +32468,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16085
+          <t xml:space="preserve">//Text $16084
 #WRITE(ptr,$5E30)
 [Lion] Needs Glasses[END]
 </t>
@@ -32482,12 +32482,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>16098</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -32499,7 +32499,7 @@
         <v>20</v>
       </c>
       <c r="H629" t="n">
-        <v>90245</v>
+        <v>90244</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>90265</v>
+        <v>90264</v>
       </c>
       <c r="K629" t="n">
         <v>4014208</v>
@@ -32519,7 +32519,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16099
+          <t xml:space="preserve">//Text $16098
 #WRITE(ptr,$5E34)
 Will and Jobs[END]
 </t>
@@ -32533,12 +32533,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>16098</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>160A7</t>
+          <t>160A6</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -32550,7 +32550,7 @@
         <v>14</v>
       </c>
       <c r="H630" t="n">
-        <v>90265</v>
+        <v>90264</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>90279</v>
+        <v>90278</v>
       </c>
       <c r="K630" t="n">
         <v>4014208</v>
@@ -32570,7 +32570,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160A7
+          <t xml:space="preserve">//Text $160A6
 #WRITE(ptr,$5E38)
 Weeping [Chaltier][END]
 </t>
@@ -32584,12 +32584,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>160A7</t>
+          <t>160A6</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>160B5</t>
+          <t>160B4</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -32601,7 +32601,7 @@
         <v>14</v>
       </c>
       <c r="H631" t="n">
-        <v>90279</v>
+        <v>90278</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>90293</v>
+        <v>90292</v>
       </c>
       <c r="K631" t="n">
         <v>4014208</v>
@@ -32621,7 +32621,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160B5
+          <t xml:space="preserve">//Text $160B4
 #WRITE(ptr,$5E3C)
 Nothing Important. Just Killing Time[END]
 </t>
@@ -32635,12 +32635,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>160B5</t>
+          <t>160B4</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>160DA</t>
+          <t>160D9</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -32652,7 +32652,7 @@
         <v>37</v>
       </c>
       <c r="H632" t="n">
-        <v>90293</v>
+        <v>90292</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>90330</v>
+        <v>90329</v>
       </c>
       <c r="K632" t="n">
         <v>4014208</v>
@@ -32672,7 +32672,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160DA
+          <t xml:space="preserve">//Text $160D9
 #WRITE(ptr,$5E40)
 A Real Nice Place?[END]
 </t>
@@ -32686,12 +32686,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>160DA</t>
+          <t>160D9</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>160ED</t>
+          <t>160EC</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -32703,7 +32703,7 @@
         <v>19</v>
       </c>
       <c r="H633" t="n">
-        <v>90330</v>
+        <v>90329</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>90349</v>
+        <v>90348</v>
       </c>
       <c r="K633" t="n">
         <v>4014208</v>
@@ -32723,7 +32723,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160ED
+          <t xml:space="preserve">//Text $160EC
 #WRITE(ptr,$5E44)
 About [Lion]'s Mother[END]
 </t>
@@ -32737,12 +32737,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>160ED</t>
+          <t>160EC</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>16102</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -32754,7 +32754,7 @@
         <v>21</v>
       </c>
       <c r="H634" t="n">
-        <v>90349</v>
+        <v>90348</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>90370</v>
+        <v>90369</v>
       </c>
       <c r="K634" t="n">
         <v>4014208</v>
@@ -32774,7 +32774,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16102
+          <t xml:space="preserve">//Text $16101
 #WRITE(ptr,$5E48)
 Kind Master [lion] Isn't![END]
 </t>
@@ -32788,12 +32788,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>16102</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1611C</t>
+          <t>1611B</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -32805,7 +32805,7 @@
         <v>26</v>
       </c>
       <c r="H635" t="n">
-        <v>90370</v>
+        <v>90369</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>90396</v>
+        <v>90395</v>
       </c>
       <c r="K635" t="n">
         <v>4014208</v>
@@ -32825,7 +32825,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1611C
+          <t xml:space="preserve">//Text $1611B
 #WRITE(ptr,$5E4C)
 The Beach[END]
 </t>
@@ -32839,12 +32839,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>1611C</t>
+          <t>1611B</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>16125</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -32856,7 +32856,7 @@
         <v>10</v>
       </c>
       <c r="H636" t="n">
-        <v>90396</v>
+        <v>90395</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
@@ -32864,7 +32864,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>90406</v>
+        <v>90405</v>
       </c>
       <c r="K636" t="n">
         <v>4014208</v>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16126
+          <t xml:space="preserve">//Text $16125
 #WRITE(ptr,$5E50)
 A Building Visible on That Island[END]
 </t>
@@ -32890,12 +32890,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>16125</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>16147</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -32907,7 +32907,7 @@
         <v>34</v>
       </c>
       <c r="H637" t="n">
-        <v>90406</v>
+        <v>90405</v>
       </c>
       <c r="I637" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>90440</v>
+        <v>90439</v>
       </c>
       <c r="K637" t="n">
         <v>4014208</v>
@@ -32927,7 +32927,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16148
+          <t xml:space="preserve">//Text $16147
 #WRITE(ptr,$5E54)
 [Lion] and Chal's Quarrel[END]
 </t>
@@ -32941,12 +32941,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>16147</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>16161</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -32958,7 +32958,7 @@
         <v>25</v>
       </c>
       <c r="H638" t="n">
-        <v>90440</v>
+        <v>90439</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>90465</v>
+        <v>90464</v>
       </c>
       <c r="K638" t="n">
         <v>4014208</v>
@@ -32978,7 +32978,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16161
+          <t xml:space="preserve">//Text $16160
 #WRITE(ptr,$5E58)
 Where Are We?[END]
 </t>
@@ -32992,12 +32992,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>16161</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>1616F</t>
+          <t>1616E</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -33009,7 +33009,7 @@
         <v>14</v>
       </c>
       <c r="H639" t="n">
-        <v>90465</v>
+        <v>90464</v>
       </c>
       <c r="I639" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>90479</v>
+        <v>90478</v>
       </c>
       <c r="K639" t="n">
         <v>4014208</v>
@@ -33029,7 +33029,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1616F
+          <t xml:space="preserve">//Text $1616E
 #WRITE(ptr,$5E5C)
 Farewell!?[END]
 </t>
@@ -33043,12 +33043,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>1616F</t>
+          <t>1616E</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>1617A</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -33060,7 +33060,7 @@
         <v>11</v>
       </c>
       <c r="H640" t="n">
-        <v>90479</v>
+        <v>90478</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
@@ -33068,7 +33068,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>90490</v>
+        <v>90489</v>
       </c>
       <c r="K640" t="n">
         <v>4014208</v>
@@ -33080,7 +33080,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1617A
+          <t xml:space="preserve">//Text $16179
 #WRITE(ptr,$5E60)
 [Philia]'s Glasses - 2[END]
 </t>
@@ -33094,12 +33094,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>1617A</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>1618E</t>
+          <t>1618D</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -33111,7 +33111,7 @@
         <v>20</v>
       </c>
       <c r="H641" t="n">
-        <v>90490</v>
+        <v>90489</v>
       </c>
       <c r="I641" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>90510</v>
+        <v>90509</v>
       </c>
       <c r="K641" t="n">
         <v>4014208</v>
@@ -33131,7 +33131,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1618E
+          <t xml:space="preserve">//Text $1618D
 #WRITE(ptr,$5E64)
 Thirsty[END]
 </t>
@@ -33145,12 +33145,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>1618E</t>
+          <t>1618D</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -33162,7 +33162,7 @@
         <v>8</v>
       </c>
       <c r="H642" t="n">
-        <v>90510</v>
+        <v>90509</v>
       </c>
       <c r="I642" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>90518</v>
+        <v>90517</v>
       </c>
       <c r="K642" t="n">
         <v>4014208</v>
@@ -33182,7 +33182,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16196
+          <t xml:space="preserve">//Text $16195
 #WRITE(ptr,$5E68)
 [Philia]'s Shampoo[END]
 </t>
@@ -33196,12 +33196,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>161A6</t>
+          <t>161A5</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -33213,7 +33213,7 @@
         <v>16</v>
       </c>
       <c r="H643" t="n">
-        <v>90518</v>
+        <v>90517</v>
       </c>
       <c r="I643" t="inlineStr">
         <is>
@@ -33221,7 +33221,7 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>90534</v>
+        <v>90533</v>
       </c>
       <c r="K643" t="n">
         <v>4014208</v>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161A6
+          <t xml:space="preserve">//Text $161A5
 #WRITE(ptr,$5E6C)
 Pow Hammer![END]
 </t>
@@ -33247,12 +33247,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>161A6</t>
+          <t>161A5</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>161B2</t>
+          <t>161B1</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -33264,7 +33264,7 @@
         <v>12</v>
       </c>
       <c r="H644" t="n">
-        <v>90534</v>
+        <v>90533</v>
       </c>
       <c r="I644" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>90546</v>
+        <v>90545</v>
       </c>
       <c r="K644" t="n">
         <v>4014208</v>
@@ -33284,7 +33284,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161B2
+          <t xml:space="preserve">//Text $161B1
 #WRITE(ptr,$5E70)
 Onigiri[END]
 </t>
@@ -33298,12 +33298,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>161B2</t>
+          <t>161B1</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>161BA</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -33315,7 +33315,7 @@
         <v>8</v>
       </c>
       <c r="H645" t="n">
-        <v>90546</v>
+        <v>90545</v>
       </c>
       <c r="I645" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>90554</v>
+        <v>90553</v>
       </c>
       <c r="K645" t="n">
         <v>4014208</v>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161BA
+          <t xml:space="preserve">//Text $161B9
 #WRITE(ptr,$5E74)
 Hamburger[END]
 </t>
@@ -33349,12 +33349,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>161BA</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>161C4</t>
+          <t>161C3</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -33366,7 +33366,7 @@
         <v>10</v>
       </c>
       <c r="H646" t="n">
-        <v>90554</v>
+        <v>90553</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
@@ -33374,7 +33374,7 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>90564</v>
+        <v>90563</v>
       </c>
       <c r="K646" t="n">
         <v>4014208</v>
@@ -33386,7 +33386,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161C4
+          <t xml:space="preserve">//Text $161C3
 #WRITE(ptr,$5E78)
 To the Village of Harmentz[END]
 </t>
@@ -33400,12 +33400,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>161C4</t>
+          <t>161C3</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>161DF</t>
+          <t>161DE</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -33417,7 +33417,7 @@
         <v>27</v>
       </c>
       <c r="H647" t="n">
-        <v>90564</v>
+        <v>90563</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -33425,7 +33425,7 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>90591</v>
+        <v>90590</v>
       </c>
       <c r="K647" t="n">
         <v>4014208</v>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161DF
+          <t xml:space="preserve">//Text $161DE
 #WRITE(ptr,$5E7C)
 Harmentz is West of Darilsheid[END]
 </t>
@@ -33451,12 +33451,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>161DF</t>
+          <t>161DE</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>161FE</t>
+          <t>161FD</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -33468,7 +33468,7 @@
         <v>31</v>
       </c>
       <c r="H648" t="n">
-        <v>90591</v>
+        <v>90590</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>90622</v>
+        <v>90621</v>
       </c>
       <c r="K648" t="n">
         <v>4014208</v>
@@ -33488,7 +33488,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161FE
+          <t xml:space="preserve">//Text $161FD
 #WRITE(ptr,$5E80)
 No Business at the Castle[END]
 </t>
@@ -33502,12 +33502,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>161FE</t>
+          <t>161FD</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -33519,7 +33519,7 @@
         <v>26</v>
       </c>
       <c r="H649" t="n">
-        <v>90622</v>
+        <v>90621</v>
       </c>
       <c r="I649" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>90648</v>
+        <v>90647</v>
       </c>
       <c r="K649" t="n">
         <v>4014208</v>
@@ -33539,7 +33539,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16218
+          <t xml:space="preserve">//Text $16217
 #WRITE(ptr,$5E84)
 Let's go to Harmentz[END]
 </t>
@@ -33553,12 +33553,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>1622D</t>
+          <t>1622C</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -33570,7 +33570,7 @@
         <v>21</v>
       </c>
       <c r="H650" t="n">
-        <v>90648</v>
+        <v>90647</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>90669</v>
+        <v>90668</v>
       </c>
       <c r="K650" t="n">
         <v>4014208</v>
@@ -33590,7 +33590,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1622D
+          <t xml:space="preserve">//Text $1622C
 #WRITE(ptr,$5E88)
 Let's Return to Darilsheid[END]
 </t>
@@ -33604,12 +33604,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>1622D</t>
+          <t>1622C</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -33621,7 +33621,7 @@
         <v>27</v>
       </c>
       <c r="H651" t="n">
-        <v>90669</v>
+        <v>90668</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>90696</v>
+        <v>90695</v>
       </c>
       <c r="K651" t="n">
         <v>4014208</v>
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16248
+          <t xml:space="preserve">//Text $16247
 #WRITE(ptr,$5E8C)
 Darilsheid is East of Harmentz[END]
 </t>
@@ -33655,12 +33655,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>16267</t>
+          <t>16266</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -33672,7 +33672,7 @@
         <v>31</v>
       </c>
       <c r="H652" t="n">
-        <v>90696</v>
+        <v>90695</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>90727</v>
+        <v>90726</v>
       </c>
       <c r="K652" t="n">
         <v>4014208</v>
@@ -33692,7 +33692,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16267
+          <t xml:space="preserve">//Text $16266
 #WRITE(ptr,$5E90)
 To the King at Seinegald Castle[END]
 </t>
@@ -33706,12 +33706,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>16267</t>
+          <t>16266</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>16287</t>
+          <t>16286</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -33723,7 +33723,7 @@
         <v>32</v>
       </c>
       <c r="H653" t="n">
-        <v>90727</v>
+        <v>90726</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>90759</v>
+        <v>90758</v>
       </c>
       <c r="K653" t="n">
         <v>4014208</v>
@@ -33743,7 +33743,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16287
+          <t xml:space="preserve">//Text $16286
 #WRITE(ptr,$5E94)
 To the Seinegald Castle Dungeon[END]
 </t>
@@ -33757,12 +33757,12 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>16287</t>
+          <t>16286</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>162A7</t>
+          <t>162A6</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -33774,7 +33774,7 @@
         <v>32</v>
       </c>
       <c r="H654" t="n">
-        <v>90759</v>
+        <v>90758</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>90791</v>
+        <v>90790</v>
       </c>
       <c r="K654" t="n">
         <v>4014208</v>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162A7
+          <t xml:space="preserve">//Text $162A6
 #WRITE(ptr,$5E98)
 Let's Return to the Manor[END]
 </t>
@@ -33808,12 +33808,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>162A7</t>
+          <t>162A6</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>162C1</t>
+          <t>162C0</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -33825,7 +33825,7 @@
         <v>26</v>
       </c>
       <c r="H655" t="n">
-        <v>90791</v>
+        <v>90790</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>90817</v>
+        <v>90816</v>
       </c>
       <c r="K655" t="n">
         <v>4014208</v>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162C1
+          <t xml:space="preserve">//Text $162C0
 #WRITE(ptr,$5E9C)
 Let's Return to the Manor[END]
 </t>
@@ -33859,12 +33859,12 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>162C1</t>
+          <t>162C0</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>162DB</t>
+          <t>162DA</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -33876,7 +33876,7 @@
         <v>26</v>
       </c>
       <c r="H656" t="n">
-        <v>90817</v>
+        <v>90816</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>90843</v>
+        <v>90842</v>
       </c>
       <c r="K656" t="n">
         <v>4014208</v>
@@ -33896,7 +33896,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162DB
+          <t xml:space="preserve">//Text $162DA
 #WRITE(ptr,$5EA0)
 Straylize Temple Is North of Darilsheid[END]
 </t>
@@ -33910,12 +33910,12 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>162DB</t>
+          <t>162DA</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>16302</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -33927,7 +33927,7 @@
         <v>40</v>
       </c>
       <c r="H657" t="n">
-        <v>90843</v>
+        <v>90842</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
@@ -33935,7 +33935,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>90883</v>
+        <v>90882</v>
       </c>
       <c r="K657" t="n">
         <v>4014208</v>
@@ -33947,7 +33947,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16303
+          <t xml:space="preserve">//Text $16302
 #WRITE(ptr,$5EA4)
 To the Temple Interior[END]
 </t>
@@ -33961,12 +33961,12 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>16302</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>1631A</t>
+          <t>16319</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -33978,7 +33978,7 @@
         <v>23</v>
       </c>
       <c r="H658" t="n">
-        <v>90883</v>
+        <v>90882</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>90906</v>
+        <v>90905</v>
       </c>
       <c r="K658" t="n">
         <v>4014208</v>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1631A
+          <t xml:space="preserve">//Text $16319
 #WRITE(ptr,$5EA8)
 To the Cathedral[END]
 </t>
@@ -34012,12 +34012,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>1631A</t>
+          <t>16319</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>1632B</t>
+          <t>1632A</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -34029,7 +34029,7 @@
         <v>17</v>
       </c>
       <c r="H659" t="n">
-        <v>90906</v>
+        <v>90905</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>90923</v>
+        <v>90922</v>
       </c>
       <c r="K659" t="n">
         <v>4014208</v>
@@ -34049,7 +34049,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1632B
+          <t xml:space="preserve">//Text $1632A
 #WRITE(ptr,$5EAC)
 Further Within the Hidden Passage[END]
 </t>
@@ -34063,12 +34063,12 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>1632B</t>
+          <t>1632A</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>1634D</t>
+          <t>1634C</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -34080,7 +34080,7 @@
         <v>34</v>
       </c>
       <c r="H660" t="n">
-        <v>90923</v>
+        <v>90922</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>90957</v>
+        <v>90956</v>
       </c>
       <c r="K660" t="n">
         <v>4014208</v>
@@ -34100,7 +34100,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1634D
+          <t xml:space="preserve">//Text $1634C
 #WRITE(ptr,$5EB0)
 To Darilsheid[END]
 </t>
@@ -34114,12 +34114,12 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>1634D</t>
+          <t>1634C</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1635B</t>
+          <t>1635A</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -34131,7 +34131,7 @@
         <v>14</v>
       </c>
       <c r="H661" t="n">
-        <v>90957</v>
+        <v>90956</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>90971</v>
+        <v>90970</v>
       </c>
       <c r="K661" t="n">
         <v>4014208</v>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1635B
+          <t xml:space="preserve">//Text $1635A
 #WRITE(ptr,$5EB4)
 To the Harbor[END]
 </t>
@@ -34165,12 +34165,12 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>1635B</t>
+          <t>1635A</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>16369</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -34182,7 +34182,7 @@
         <v>14</v>
       </c>
       <c r="H662" t="n">
-        <v>90971</v>
+        <v>90970</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>90985</v>
+        <v>90984</v>
       </c>
       <c r="K662" t="n">
         <v>4014208</v>
@@ -34202,7 +34202,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16369
+          <t xml:space="preserve">//Text $16368
 #WRITE(ptr,$5EB8)
 Hurry to the Harbor[END]
 </t>
@@ -34216,12 +34216,12 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>16369</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>1637D</t>
+          <t>1637C</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -34233,7 +34233,7 @@
         <v>20</v>
       </c>
       <c r="H663" t="n">
-        <v>90985</v>
+        <v>90984</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>91005</v>
+        <v>91004</v>
       </c>
       <c r="K663" t="n">
         <v>4014208</v>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1637D
+          <t xml:space="preserve">//Text $1637C
 #WRITE(ptr,$5EBC)
 Before the King of Seinegald[END]
 </t>
@@ -34267,12 +34267,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>1637D</t>
+          <t>1637C</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>1639A</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -34284,7 +34284,7 @@
         <v>29</v>
       </c>
       <c r="H664" t="n">
-        <v>91005</v>
+        <v>91004</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>91034</v>
+        <v>91033</v>
       </c>
       <c r="K664" t="n">
         <v>4014208</v>
@@ -34304,7 +34304,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1639A
+          <t xml:space="preserve">//Text $16399
 #WRITE(ptr,$5EC0)
 Report to His Majesty[END]
 </t>
@@ -34318,12 +34318,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>1639A</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>163B0</t>
+          <t>163AF</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -34335,7 +34335,7 @@
         <v>22</v>
       </c>
       <c r="H665" t="n">
-        <v>91034</v>
+        <v>91033</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>91056</v>
+        <v>91055</v>
       </c>
       <c r="K665" t="n">
         <v>4014208</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163B0
+          <t xml:space="preserve">//Text $163AF
 #WRITE(ptr,$5EC4)
 I Should Say Goodbye..[END]
 </t>
@@ -34369,12 +34369,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>163B0</t>
+          <t>163AF</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>163C7</t>
+          <t>163C6</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -34386,7 +34386,7 @@
         <v>23</v>
       </c>
       <c r="H666" t="n">
-        <v>91056</v>
+        <v>91055</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>91079</v>
+        <v>91078</v>
       </c>
       <c r="K666" t="n">
         <v>4014208</v>
@@ -34406,7 +34406,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163C7
+          <t xml:space="preserve">//Text $163C6
 #WRITE(ptr,$5EC8)
 To Where [Marian] Is...[END]
 </t>
@@ -34420,12 +34420,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>163C7</t>
+          <t>163C6</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>163DC</t>
+          <t>163DB</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -34437,7 +34437,7 @@
         <v>21</v>
       </c>
       <c r="H667" t="n">
-        <v>91079</v>
+        <v>91078</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>91100</v>
+        <v>91099</v>
       </c>
       <c r="K667" t="n">
         <v>4014208</v>
@@ -34457,7 +34457,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163DC
+          <t xml:space="preserve">//Text $163DB
 #WRITE(ptr,$5ECC)
 Let's Go to the Harbor[END]
 </t>
@@ -34471,12 +34471,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>163DC</t>
+          <t>163DB</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>163F3</t>
+          <t>163F2</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -34488,7 +34488,7 @@
         <v>23</v>
       </c>
       <c r="H668" t="n">
-        <v>91100</v>
+        <v>91099</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>91123</v>
+        <v>91122</v>
       </c>
       <c r="K668" t="n">
         <v>4014208</v>
@@ -34508,7 +34508,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163F3
+          <t xml:space="preserve">//Text $163F2
 #WRITE(ptr,$5ED0)
 To the Inn for Now[END]
 </t>
@@ -34522,12 +34522,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>163F3</t>
+          <t>163F2</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>16406</t>
+          <t>16405</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -34539,7 +34539,7 @@
         <v>19</v>
       </c>
       <c r="H669" t="n">
-        <v>91123</v>
+        <v>91122</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>91142</v>
+        <v>91141</v>
       </c>
       <c r="K669" t="n">
         <v>4014208</v>
@@ -34559,7 +34559,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16406
+          <t xml:space="preserve">//Text $16405
 #WRITE(ptr,$5ED4)
 Let's Look Around Town[END]
 </t>
@@ -34573,12 +34573,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>16406</t>
+          <t>16405</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1641D</t>
+          <t>1641C</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -34590,7 +34590,7 @@
         <v>23</v>
       </c>
       <c r="H670" t="n">
-        <v>91142</v>
+        <v>91141</v>
       </c>
       <c r="I670" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>91165</v>
+        <v>91164</v>
       </c>
       <c r="K670" t="n">
         <v>4014208</v>
@@ -34610,7 +34610,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1641D
+          <t xml:space="preserve">//Text $1641C
 #WRITE(ptr,$5ED8)
 It's Dangerous Outside![END]
 </t>
@@ -34624,12 +34624,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>1641D</t>
+          <t>1641C</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>16435</t>
+          <t>16434</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -34641,7 +34641,7 @@
         <v>24</v>
       </c>
       <c r="H671" t="n">
-        <v>91165</v>
+        <v>91164</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>91189</v>
+        <v>91188</v>
       </c>
       <c r="K671" t="n">
         <v>4014208</v>
@@ -34661,7 +34661,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16435
+          <t xml:space="preserve">//Text $16434
 #WRITE(ptr,$5EDC)
 Let's Head Back to the Inn Soon[END]
 </t>
@@ -34675,12 +34675,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>16435</t>
+          <t>16434</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>16454</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -34692,7 +34692,7 @@
         <v>32</v>
       </c>
       <c r="H672" t="n">
-        <v>91189</v>
+        <v>91188</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>91221</v>
+        <v>91220</v>
       </c>
       <c r="K672" t="n">
         <v>4014208</v>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16455
+          <t xml:space="preserve">//Text $16454
 #WRITE(ptr,$5EE0)
 Go to the Temple's Back Door![END]
 </t>
@@ -34726,12 +34726,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>16454</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16472</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -34743,7 +34743,7 @@
         <v>30</v>
       </c>
       <c r="H673" t="n">
-        <v>91221</v>
+        <v>91220</v>
       </c>
       <c r="I673" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>91251</v>
+        <v>91250</v>
       </c>
       <c r="K673" t="n">
         <v>4014208</v>
@@ -34763,7 +34763,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16473
+          <t xml:space="preserve">//Text $16472
 #WRITE(ptr,$5EE4)
 Chase After [Greybum][END]
 </t>
@@ -34777,12 +34777,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16472</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>16485</t>
+          <t>16484</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -34794,7 +34794,7 @@
         <v>18</v>
       </c>
       <c r="H674" t="n">
-        <v>91251</v>
+        <v>91250</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>91269</v>
+        <v>91268</v>
       </c>
       <c r="K674" t="n">
         <v>4014208</v>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16485
+          <t xml:space="preserve">//Text $16484
 #WRITE(ptr,$5EE8)
 To the Front Door[END]
 </t>
@@ -34828,12 +34828,12 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>16485</t>
+          <t>16484</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>16496</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -34845,7 +34845,7 @@
         <v>18</v>
       </c>
       <c r="H675" t="n">
-        <v>91269</v>
+        <v>91268</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>91287</v>
+        <v>91286</v>
       </c>
       <c r="K675" t="n">
         <v>4014208</v>
@@ -34865,7 +34865,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16497
+          <t xml:space="preserve">//Text $16496
 #WRITE(ptr,$5EEC)
 In Search of the Softy Kreem Stand[END]
 </t>
@@ -34879,12 +34879,12 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>16496</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>164BA</t>
+          <t>164B9</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -34896,7 +34896,7 @@
         <v>35</v>
       </c>
       <c r="H676" t="n">
-        <v>91287</v>
+        <v>91286</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>91322</v>
+        <v>91321</v>
       </c>
       <c r="K676" t="n">
         <v>4014208</v>
@@ -34916,7 +34916,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164BA
+          <t xml:space="preserve">//Text $164B9
 #WRITE(ptr,$5EF0)
 We're Not Going Out of Town[END]
 </t>
@@ -34930,12 +34930,12 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>164BA</t>
+          <t>164B9</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>164D6</t>
+          <t>164D5</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -34947,7 +34947,7 @@
         <v>28</v>
       </c>
       <c r="H677" t="n">
-        <v>91322</v>
+        <v>91321</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>91350</v>
+        <v>91349</v>
       </c>
       <c r="K677" t="n">
         <v>4014208</v>
@@ -34967,7 +34967,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164D6
+          <t xml:space="preserve">//Text $164D5
 #WRITE(ptr,$5EF4)
 From the Harbor to the Armada[END]
 </t>
@@ -34981,12 +34981,12 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>164D6</t>
+          <t>164D5</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>164F4</t>
+          <t>164F3</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -34998,7 +34998,7 @@
         <v>30</v>
       </c>
       <c r="H678" t="n">
-        <v>91350</v>
+        <v>91349</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>91380</v>
+        <v>91379</v>
       </c>
       <c r="K678" t="n">
         <v>4014208</v>
@@ -35018,7 +35018,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164F4
+          <t xml:space="preserve">//Text $164F3
 #WRITE(ptr,$5EF8)
 My Target is Greybum[END]
 </t>
@@ -35032,12 +35032,12 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>164F4</t>
+          <t>164F3</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>16509</t>
+          <t>16508</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -35049,7 +35049,7 @@
         <v>21</v>
       </c>
       <c r="H679" t="n">
-        <v>91380</v>
+        <v>91379</v>
       </c>
       <c r="I679" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>91401</v>
+        <v>91400</v>
       </c>
       <c r="K679" t="n">
         <v>4014208</v>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16509
+          <t xml:space="preserve">//Text $16508
 #WRITE(ptr,$5EFC)
 We're Returning to Shiden[END]
 </t>
@@ -35083,12 +35083,12 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>16509</t>
+          <t>16508</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>16522</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -35100,7 +35100,7 @@
         <v>26</v>
       </c>
       <c r="H680" t="n">
-        <v>91401</v>
+        <v>91400</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>91427</v>
+        <v>91426</v>
       </c>
       <c r="K680" t="n">
         <v>4014208</v>
@@ -35120,7 +35120,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16523
+          <t xml:space="preserve">//Text $16522
 #WRITE(ptr,$5F00)
 We're Heading Back to Shiden[END]
 </t>
@@ -35134,12 +35134,12 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>16522</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>16540</t>
+          <t>1653F</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -35151,7 +35151,7 @@
         <v>29</v>
       </c>
       <c r="H681" t="n">
-        <v>91427</v>
+        <v>91426</v>
       </c>
       <c r="I681" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>91456</v>
+        <v>91455</v>
       </c>
       <c r="K681" t="n">
         <v>4014208</v>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16540
+          <t xml:space="preserve">//Text $1653F
 #WRITE(ptr,$5F04)
 Let's Find Some Rope[END]
 </t>
@@ -35185,12 +35185,12 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>16540</t>
+          <t>1653F</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -35202,7 +35202,7 @@
         <v>21</v>
       </c>
       <c r="H682" t="n">
-        <v>91456</v>
+        <v>91455</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>91477</v>
+        <v>91476</v>
       </c>
       <c r="K682" t="n">
         <v>4014208</v>
@@ -35222,7 +35222,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16555
+          <t xml:space="preserve">//Text $16554
 #WRITE(ptr,$5F08)
 Let's Explore Moreau[END]
 </t>
@@ -35236,12 +35236,12 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>1656A</t>
+          <t>16569</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -35253,7 +35253,7 @@
         <v>21</v>
       </c>
       <c r="H683" t="n">
-        <v>91477</v>
+        <v>91476</v>
       </c>
       <c r="I683" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>91498</v>
+        <v>91497</v>
       </c>
       <c r="K683" t="n">
         <v>4014208</v>
@@ -35273,7 +35273,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1656A
+          <t xml:space="preserve">//Text $16569
 #WRITE(ptr,$5F0C)
 To Seinegald Castle[END]
 </t>
@@ -35287,12 +35287,12 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>1656A</t>
+          <t>16569</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>1657E</t>
+          <t>1657D</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -35304,7 +35304,7 @@
         <v>20</v>
       </c>
       <c r="H684" t="n">
-        <v>91498</v>
+        <v>91497</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>91518</v>
+        <v>91517</v>
       </c>
       <c r="K684" t="n">
         <v>4014208</v>
@@ -35324,7 +35324,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1657E
+          <t xml:space="preserve">//Text $1657D
 #WRITE(ptr,$5F10)
 Let's Head to Harmentz[END]
 </t>
@@ -35338,12 +35338,12 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>1657E</t>
+          <t>1657D</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>16595</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -35355,7 +35355,7 @@
         <v>23</v>
       </c>
       <c r="H685" t="n">
-        <v>91518</v>
+        <v>91517</v>
       </c>
       <c r="I685" t="inlineStr">
         <is>
@@ -35363,7 +35363,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>91541</v>
+        <v>91540</v>
       </c>
       <c r="K685" t="n">
         <v>4014208</v>
@@ -35375,7 +35375,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16595
+          <t xml:space="preserve">//Text $16594
 #WRITE(ptr,$5F14)
 Harmentz is West of the Capital[END]
 </t>
@@ -35389,12 +35389,12 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>16595</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>165B5</t>
+          <t>165B4</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
@@ -35406,7 +35406,7 @@
         <v>32</v>
       </c>
       <c r="H686" t="n">
-        <v>91541</v>
+        <v>91540</v>
       </c>
       <c r="I686" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>91573</v>
+        <v>91572</v>
       </c>
       <c r="K686" t="n">
         <v>4014208</v>
@@ -35426,7 +35426,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165B5
+          <t xml:space="preserve">//Text $165B4
 #WRITE(ptr,$5F18)
 To Straylize Temple[END]
 </t>
@@ -35440,12 +35440,12 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>165B5</t>
+          <t>165B4</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>165C9</t>
+          <t>165C8</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -35457,7 +35457,7 @@
         <v>20</v>
       </c>
       <c r="H687" t="n">
-        <v>91573</v>
+        <v>91572</v>
       </c>
       <c r="I687" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>91593</v>
+        <v>91592</v>
       </c>
       <c r="K687" t="n">
         <v>4014208</v>
@@ -35477,7 +35477,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165C9
+          <t xml:space="preserve">//Text $165C8
 #WRITE(ptr,$5F1C)
 Let's Return to the Manor[END]
 </t>
@@ -35491,12 +35491,12 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>165C9</t>
+          <t>165C8</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>165E3</t>
+          <t>165E2</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -35508,7 +35508,7 @@
         <v>26</v>
       </c>
       <c r="H688" t="n">
-        <v>91593</v>
+        <v>91592</v>
       </c>
       <c r="I688" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>91619</v>
+        <v>91618</v>
       </c>
       <c r="K688" t="n">
         <v>4014208</v>
@@ -35528,7 +35528,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165E3
+          <t xml:space="preserve">//Text $165E2
 #WRITE(ptr,$5F20)
 Let's Return to the Manor[END]
 </t>
@@ -35542,12 +35542,12 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>165E3</t>
+          <t>165E2</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>165FD</t>
+          <t>165FC</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -35559,7 +35559,7 @@
         <v>26</v>
       </c>
       <c r="H689" t="n">
-        <v>91619</v>
+        <v>91618</v>
       </c>
       <c r="I689" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>91645</v>
+        <v>91644</v>
       </c>
       <c r="K689" t="n">
         <v>4014208</v>
@@ -35579,7 +35579,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165FD
+          <t xml:space="preserve">//Text $165FC
 #WRITE(ptr,$5F24)
 Visit the King at Seinegald Castle[END]
 </t>
@@ -35593,12 +35593,12 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>165FD</t>
+          <t>165FC</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>1661F</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -35610,7 +35610,7 @@
         <v>35</v>
       </c>
       <c r="H690" t="n">
-        <v>91645</v>
+        <v>91644</v>
       </c>
       <c r="I690" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>91680</v>
+        <v>91679</v>
       </c>
       <c r="K690" t="n">
         <v>4014208</v>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16620
+          <t xml:space="preserve">//Text $1661F
 #WRITE(ptr,$5F28)
 Go to Cresta, East of Darilsheid[END]
 </t>
@@ -35644,12 +35644,12 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>1661F</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>16641</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -35661,7 +35661,7 @@
         <v>33</v>
       </c>
       <c r="H691" t="n">
-        <v>91680</v>
+        <v>91679</v>
       </c>
       <c r="I691" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>91713</v>
+        <v>91712</v>
       </c>
       <c r="K691" t="n">
         <v>4014208</v>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16641
+          <t xml:space="preserve">//Text $16640
 #WRITE(ptr,$5F2C)
 Cresta is East of Darilsheid[END]
 </t>
@@ -35695,12 +35695,12 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>16641</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1665E</t>
+          <t>1665D</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
@@ -35712,7 +35712,7 @@
         <v>29</v>
       </c>
       <c r="H692" t="n">
-        <v>91713</v>
+        <v>91712</v>
       </c>
       <c r="I692" t="inlineStr">
         <is>
@@ -35720,7 +35720,7 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>91742</v>
+        <v>91741</v>
       </c>
       <c r="K692" t="n">
         <v>4014208</v>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1665E
+          <t xml:space="preserve">//Text $1665D
 #WRITE(ptr,$5F30)
 Let's Find the Seinegald Soldiers in Cresta[END]
 </t>
@@ -35746,12 +35746,12 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>1665E</t>
+          <t>1665D</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>1668A</t>
+          <t>16689</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -35763,7 +35763,7 @@
         <v>44</v>
       </c>
       <c r="H693" t="n">
-        <v>91742</v>
+        <v>91741</v>
       </c>
       <c r="I693" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1668A
+          <t xml:space="preserve">//Text $16689
 #WRITE(ptr,$5F34)
 Let's Find the Orphanage[END]
 </t>
@@ -35797,12 +35797,12 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>1668A</t>
+          <t>16689</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>166A3</t>
+          <t>166A2</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -35814,7 +35814,7 @@
         <v>25</v>
       </c>
       <c r="H694" t="n">
-        <v>91786</v>
+        <v>91785</v>
       </c>
       <c r="I694" t="inlineStr">
         <is>
@@ -35834,7 +35834,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166A3
+          <t xml:space="preserve">//Text $166A2
 #WRITE(ptr,$5F38)
 Find the Beach North of Cresta[END]
 </t>
@@ -35848,12 +35848,12 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>166A3</t>
+          <t>166A2</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>166C2</t>
+          <t>166C1</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -35865,7 +35865,7 @@
         <v>31</v>
       </c>
       <c r="H695" t="n">
-        <v>91811</v>
+        <v>91810</v>
       </c>
       <c r="I695" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166C2
+          <t xml:space="preserve">//Text $166C1
 #WRITE(ptr,$5F3C)
 Let's Debrief the Mission[END]
 </t>
@@ -35899,12 +35899,12 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>166C2</t>
+          <t>166C1</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>166DC</t>
+          <t>166DB</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -35916,7 +35916,7 @@
         <v>26</v>
       </c>
       <c r="H696" t="n">
-        <v>91842</v>
+        <v>91841</v>
       </c>
       <c r="I696" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166DC
+          <t xml:space="preserve">//Text $166DB
 #WRITE(ptr,$5F40)
 No Business Outside[END]
 </t>
@@ -35950,12 +35950,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>166DC</t>
+          <t>166DB</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>166F0</t>
+          <t>166EF</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -35967,7 +35967,7 @@
         <v>20</v>
       </c>
       <c r="H697" t="n">
-        <v>91868</v>
+        <v>91867</v>
       </c>
       <c r="I697" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166F0
+          <t xml:space="preserve">//Text $166EF
 #WRITE(ptr,$5F44)
 Let's Hurry Back to the Manor[END]
 </t>
@@ -36001,12 +36001,12 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>166F0</t>
+          <t>166EF</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>1670E</t>
+          <t>1670D</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -36018,7 +36018,7 @@
         <v>30</v>
       </c>
       <c r="H698" t="n">
-        <v>91888</v>
+        <v>91887</v>
       </c>
       <c r="I698" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1670E
+          <t xml:space="preserve">//Text $1670D
 #WRITE(ptr,$5F48)
 We Need to Find [Marian][END]
 </t>
@@ -36052,12 +36052,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>1670E</t>
+          <t>1670D</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>16724</t>
+          <t>16723</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -36069,7 +36069,7 @@
         <v>22</v>
       </c>
       <c r="H699" t="n">
-        <v>91918</v>
+        <v>91917</v>
       </c>
       <c r="I699" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16724
+          <t xml:space="preserve">//Text $16723
 #WRITE(ptr,$5F4C)
 The Draconis is in the Castle[END]
 </t>
@@ -36103,12 +36103,12 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>16724</t>
+          <t>16723</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>16741</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -36120,7 +36120,7 @@
         <v>30</v>
       </c>
       <c r="H700" t="n">
-        <v>91940</v>
+        <v>91939</v>
       </c>
       <c r="I700" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16742
+          <t xml:space="preserve">//Text $16741
 #WRITE(ptr,$5F50)
 Let's hear Hugo's Orders[END]
 </t>
@@ -36154,12 +36154,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>16741</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1675B</t>
+          <t>1675A</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -36171,7 +36171,7 @@
         <v>25</v>
       </c>
       <c r="H701" t="n">
-        <v>91970</v>
+        <v>91969</v>
       </c>
       <c r="I701" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1675B
+          <t xml:space="preserve">//Text $1675A
 #WRITE(ptr,$5F54)
 We'll Enter the Sealing Facility from Behind[END]
 </t>
@@ -36205,12 +36205,12 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>1675B</t>
+          <t>1675A</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -36222,7 +36222,7 @@
         <v>45</v>
       </c>
       <c r="H702" t="n">
-        <v>91995</v>
+        <v>91994</v>
       </c>
       <c r="I702" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16788
+          <t xml:space="preserve">//Text $16787
 #WRITE(ptr,$5F58)
 To the Sealing Facility[END]
 </t>
@@ -36256,12 +36256,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>167A0</t>
+          <t>1679F</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -36273,7 +36273,7 @@
         <v>24</v>
       </c>
       <c r="H703" t="n">
-        <v>92040</v>
+        <v>92039</v>
       </c>
       <c r="I703" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167A0
+          <t xml:space="preserve">//Text $1679F
 #WRITE(ptr,$5F5C)
 To the Depths[END]
 </t>
@@ -36307,12 +36307,12 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>167A0</t>
+          <t>1679F</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>167AE</t>
+          <t>167AD</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -36324,7 +36324,7 @@
         <v>14</v>
       </c>
       <c r="H704" t="n">
-        <v>92064</v>
+        <v>92063</v>
       </c>
       <c r="I704" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167AE
+          <t xml:space="preserve">//Text $167AD
 #WRITE(ptr,$5F60)
 Where's Hugo and the Others?[END]
 </t>
@@ -36358,12 +36358,12 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>167AE</t>
+          <t>167AD</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>167CB</t>
+          <t>167CA</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -36375,7 +36375,7 @@
         <v>29</v>
       </c>
       <c r="H705" t="n">
-        <v>92078</v>
+        <v>92077</v>
       </c>
       <c r="I705" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167CB
+          <t xml:space="preserve">//Text $167CA
 #WRITE(ptr,$5F64)
 Sorcerer's Ring goes Boom[END]
 </t>
@@ -36409,12 +36409,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>167CB</t>
+          <t>167CA</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>167E5</t>
+          <t>167E4</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -36426,7 +36426,7 @@
         <v>26</v>
       </c>
       <c r="H706" t="n">
-        <v>92107</v>
+        <v>92106</v>
       </c>
       <c r="I706" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167E5
+          <t xml:space="preserve">//Text $167E4
 #WRITE(ptr,$5F68)
 There's Still Places We Can Destroy[END]
 </t>
@@ -36460,12 +36460,12 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>167E5</t>
+          <t>167E4</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>16809</t>
+          <t>16808</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -36477,7 +36477,7 @@
         <v>36</v>
       </c>
       <c r="H707" t="n">
-        <v>92133</v>
+        <v>92132</v>
       </c>
       <c r="I707" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16809
+          <t xml:space="preserve">//Text $16808
 #WRITE(ptr,$5F6C)
 Not This Way[END]
 </t>
@@ -36511,12 +36511,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>16809</t>
+          <t>16808</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>16816</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -36528,7 +36528,7 @@
         <v>13</v>
       </c>
       <c r="H708" t="n">
-        <v>92169</v>
+        <v>92168</v>
       </c>
       <c r="I708" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16816
+          <t xml:space="preserve">//Text $16815
 #WRITE(ptr,$5F70)
 We Can't Afford to Dawdle![END]
 </t>
@@ -36562,12 +36562,12 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>16816</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>16831</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -36579,7 +36579,7 @@
         <v>27</v>
       </c>
       <c r="H709" t="n">
-        <v>92182</v>
+        <v>92181</v>
       </c>
       <c r="I709" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16831
+          <t xml:space="preserve">//Text $16830
 #WRITE(ptr,$5F74)
 Let's Not Do That Now..[END]
 </t>
@@ -36613,12 +36613,12 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>16831</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>16849</t>
+          <t>16848</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -36630,7 +36630,7 @@
         <v>24</v>
       </c>
       <c r="H710" t="n">
-        <v>92209</v>
+        <v>92208</v>
       </c>
       <c r="I710" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16849
+          <t xml:space="preserve">//Text $16848
 #WRITE(ptr,$5F78)
 Let's Go[END]
 </t>
@@ -36664,12 +36664,12 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>16849</t>
+          <t>16848</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>16852</t>
+          <t>16851</t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
@@ -36681,7 +36681,7 @@
         <v>9</v>
       </c>
       <c r="H711" t="n">
-        <v>92233</v>
+        <v>92232</v>
       </c>
       <c r="I711" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16852
+          <t xml:space="preserve">//Text $16851
 #WRITE(ptr,$5F7C)
 I Have Somewhere Else to Be[END]
 </t>
@@ -36715,12 +36715,12 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>16852</t>
+          <t>16851</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>1686E</t>
+          <t>1686D</t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -36732,7 +36732,7 @@
         <v>28</v>
       </c>
       <c r="H712" t="n">
-        <v>92242</v>
+        <v>92241</v>
       </c>
       <c r="I712" t="inlineStr">
         <is>
